--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>905133.5495566593</v>
+        <v>901298.233405005</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33315485.83212408</v>
+        <v>33315485.83212409</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6051961.679838833</v>
+        <v>6051961.679838832</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>41.31500304752735</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="V9" t="n">
-        <v>36.39025468426209</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>215.2884604558078</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>58.49220969812581</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T11" t="n">
         <v>209.616899433655</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.6104941730484</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T13" t="n">
         <v>239.8087099681002</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6025608416909</v>
+        <v>166.0734626213146</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>105.3146278258266</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>356.500795330755</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>167.7540751961158</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0900140992919</v>
+        <v>59.5840224405197</v>
       </c>
       <c r="H16" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.8087099681002</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>38.94342691396596</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.87097519686766</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>139.3480870108789</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.09163721489043</v>
+        <v>44.09163721489042</v>
       </c>
       <c r="T18" t="n">
         <v>124.8125887466708</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>59.58402244051968</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.3514261152632</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>160.7837372030166</v>
+        <v>239.8087099681002</v>
       </c>
       <c r="U19" t="n">
         <v>275.6025608416909</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>361.680294285013</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T20" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>136.5622423701551</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0900140992919</v>
@@ -2259,7 +2259,7 @@
         <v>130.9872392357504</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>142.9168426887021</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8087099681002</v>
+        <v>143.0476174792441</v>
       </c>
       <c r="U22" t="n">
         <v>275.6025608416909</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>131.8213534440817</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>19.43024821825925</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2329,13 +2329,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>121.9147057301969</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9168426887021</v>
+        <v>142.9168426887018</v>
       </c>
       <c r="T25" t="n">
         <v>239.8087099681002</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6025608416909</v>
+        <v>275.602560841691</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>108.4904748606014</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.87097519686766</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U26" t="n">
         <v>256.4793149654022</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>46.07585315416847</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2769,7 +2769,7 @@
         <v>239.8087099681002</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6025608416909</v>
+        <v>275.602560841691</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2800,13 +2800,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>84.49040405655359</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.87097519686766</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T29" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4793149654022</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>368.90847674556</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -3003,10 +3003,10 @@
         <v>142.9168426887021</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8087099681002</v>
+        <v>239.8087099680998</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6025608416909</v>
+        <v>275.6025608416915</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.49929442858</v>
+        <v>359.9647843861168</v>
       </c>
       <c r="H32" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.87097519686766</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>178.1090460666173</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3271,16 +3271,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>205.7902436456914</v>
+        <v>224.8417715146468</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.87097519686766</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>88.1689304304621</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H37" t="n">
-        <v>130.9872392357504</v>
+        <v>92.47368376590302</v>
       </c>
       <c r="I37" t="n">
-        <v>62.3514261152632</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>2.86878510940355</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.87097519686766</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U38" t="n">
         <v>256.4793149654022</v>
@@ -3565,13 +3565,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>186.2201465849826</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.92251569979236</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3669,16 +3669,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9872392357504</v>
+        <v>1.073807166534087</v>
       </c>
       <c r="I40" t="n">
         <v>62.3514261152632</v>
@@ -3720,7 +3720,7 @@
         <v>275.6025608416909</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>332.3822695257416</v>
       </c>
       <c r="C41" t="n">
-        <v>163.4047576820145</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.0900140992919</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8087099681002</v>
+        <v>86.37054173867202</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6025608416909</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>172.4170302419136</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>414.5123094844435</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.49929442858</v>
+        <v>291.6602002534315</v>
       </c>
       <c r="H44" t="n">
         <v>266.9386168967821</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.87097519686766</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>95.44837409095601</v>
       </c>
       <c r="F46" t="n">
-        <v>34.7637853851303</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.3514261152632</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T46" t="n">
         <v>239.8087099681002</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="C9" t="n">
         <v>3.305200243802188</v>
@@ -4880,31 +4880,31 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>30.07714055499348</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>36.666567213219</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>47.92894692056262</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
-        <v>63.07260630106745</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M9" t="n">
-        <v>103.9744593181195</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N9" t="n">
-        <v>122.1141191020718</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7083639341947</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P9" t="n">
-        <v>152.0267083864403</v>
+        <v>130.4898521020749</v>
       </c>
       <c r="Q9" t="n">
-        <v>160.929668948206</v>
+        <v>139.3928126638406</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4913,22 +4913,22 @@
         <v>123.5276858794757</v>
       </c>
       <c r="T9" t="n">
+        <v>123.5276858794757</v>
+      </c>
+      <c r="U9" t="n">
+        <v>123.5276858794757</v>
+      </c>
+      <c r="V9" t="n">
+        <v>123.5276858794757</v>
+      </c>
+      <c r="W9" t="n">
         <v>81.79535956884203</v>
       </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
         <v>40.06303325820834</v>
       </c>
-      <c r="V9" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="X9" t="n">
-        <v>3.305200243802188</v>
-      </c>
       <c r="Y9" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.03752655443588</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C10" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
         <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
         <v>3.305200243802188</v>
@@ -4962,25 +4962,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>44.20705326085427</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>85.10890627790634</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
-        <v>93.80214871704736</v>
+        <v>22.9258601234117</v>
       </c>
       <c r="M10" t="n">
-        <v>102.9679539865905</v>
+        <v>32.09166539295484</v>
       </c>
       <c r="N10" t="n">
-        <v>111.915816893406</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O10" t="n">
-        <v>120.1806165414288</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
-        <v>127.2525804285715</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4992,22 +4992,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T10" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U10" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V10" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W10" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X10" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>972.510127250047</v>
+        <v>264.8802761130639</v>
       </c>
       <c r="C11" t="n">
-        <v>534.3676544334703</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="D11" t="n">
-        <v>534.3676544334703</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="E11" t="n">
-        <v>534.3676544334703</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="F11" t="n">
-        <v>106.5002248426781</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G11" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H11" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I11" t="n">
-        <v>118.9365917639708</v>
+        <v>118.9365917639705</v>
       </c>
       <c r="J11" t="n">
-        <v>277.2866545754687</v>
+        <v>277.2866545754686</v>
       </c>
       <c r="K11" t="n">
-        <v>514.6123507107058</v>
+        <v>514.6123507107056</v>
       </c>
       <c r="L11" t="n">
-        <v>809.035862540046</v>
+        <v>809.0358625400456</v>
       </c>
       <c r="M11" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N11" t="n">
         <v>1469.542592232819</v>
@@ -5068,25 +5068,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S11" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T11" t="n">
-        <v>2159.124995325877</v>
+        <v>2118.851283005808</v>
       </c>
       <c r="U11" t="n">
-        <v>2159.124995325877</v>
+        <v>1859.78126788924</v>
       </c>
       <c r="V11" t="n">
-        <v>1796.508045259703</v>
+        <v>1497.164317823067</v>
       </c>
       <c r="W11" t="n">
-        <v>1391.652590670736</v>
+        <v>1092.3088632341</v>
       </c>
       <c r="X11" t="n">
-        <v>972.510127250047</v>
+        <v>673.1663998134105</v>
       </c>
       <c r="Y11" t="n">
-        <v>972.510127250047</v>
+        <v>264.8802761130639</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>79.31614662250912</v>
       </c>
       <c r="H12" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I12" t="n">
-        <v>81.78656726718472</v>
+        <v>74.36658772664244</v>
       </c>
       <c r="J12" t="n">
-        <v>176.0987798711818</v>
+        <v>168.6788003306395</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2933730396216</v>
+        <v>329.8733934990793</v>
       </c>
       <c r="L12" t="n">
-        <v>554.0393962029324</v>
+        <v>546.61941666239</v>
       </c>
       <c r="M12" t="n">
-        <v>806.9717819850647</v>
+        <v>799.5518024445222</v>
       </c>
       <c r="N12" t="n">
-        <v>1066.598535395047</v>
+        <v>1059.178555854504</v>
       </c>
       <c r="O12" t="n">
-        <v>1304.1062925618</v>
+        <v>1296.686313021258</v>
       </c>
       <c r="P12" t="n">
-        <v>1494.727206741867</v>
+        <v>1487.307227201325</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.73226019082</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>919.7892044712677</v>
+        <v>1092.350915988043</v>
       </c>
       <c r="C13" t="n">
         <v>919.7892044712677</v>
@@ -5196,22 +5196,22 @@
         <v>110.3984232438269</v>
       </c>
       <c r="I13" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J13" t="n">
-        <v>106.5856360663959</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K13" t="n">
-        <v>203.817577419852</v>
+        <v>478.5760319909876</v>
       </c>
       <c r="L13" t="n">
-        <v>746.4508683344815</v>
+        <v>1021.209322905617</v>
       </c>
       <c r="M13" t="n">
-        <v>877.6379078303847</v>
+        <v>1152.39636240152</v>
       </c>
       <c r="N13" t="n">
-        <v>1129.26372814164</v>
+        <v>1280.464067315662</v>
       </c>
       <c r="O13" t="n">
         <v>1667.224231214333</v>
@@ -5226,25 +5226,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S13" t="n">
-        <v>2370.859237178053</v>
+        <v>2226.498790017748</v>
       </c>
       <c r="T13" t="n">
-        <v>2128.628217008255</v>
+        <v>1984.267769847949</v>
       </c>
       <c r="U13" t="n">
-        <v>1850.241791915638</v>
+        <v>1816.516797503187</v>
       </c>
       <c r="V13" t="n">
-        <v>1563.286283786068</v>
+        <v>1529.561289373617</v>
       </c>
       <c r="W13" t="n">
-        <v>1291.25987937236</v>
+        <v>1529.561289373617</v>
       </c>
       <c r="X13" t="n">
-        <v>1291.25987937236</v>
+        <v>1284.16953470703</v>
       </c>
       <c r="Y13" t="n">
-        <v>1063.840208686468</v>
+        <v>1284.16953470703</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>917.1017144108214</v>
+        <v>2052.746583380597</v>
       </c>
       <c r="C14" t="n">
-        <v>917.1017144108214</v>
+        <v>1614.60411056402</v>
       </c>
       <c r="D14" t="n">
-        <v>481.1919295852659</v>
+        <v>1178.694325738464</v>
       </c>
       <c r="E14" t="n">
-        <v>47.41718474356106</v>
+        <v>744.9195808967595</v>
       </c>
       <c r="F14" t="n">
-        <v>47.41718474356106</v>
+        <v>317.0521513059672</v>
       </c>
       <c r="G14" t="n">
-        <v>47.41718474356106</v>
+        <v>317.0521513059672</v>
       </c>
       <c r="H14" t="n">
         <v>47.41718474356106</v>
       </c>
       <c r="I14" t="n">
-        <v>118.9365917639705</v>
+        <v>118.9365917639707</v>
       </c>
       <c r="J14" t="n">
-        <v>277.2866545754684</v>
+        <v>277.2866545754686</v>
       </c>
       <c r="K14" t="n">
-        <v>514.6123507107055</v>
+        <v>514.6123507107056</v>
       </c>
       <c r="L14" t="n">
         <v>809.0358625400456</v>
       </c>
       <c r="M14" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N14" t="n">
         <v>1469.542592232819</v>
@@ -5308,22 +5308,22 @@
         <v>2370.859237178053</v>
       </c>
       <c r="T14" t="n">
-        <v>2370.859237178053</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="U14" t="n">
-        <v>2111.789222061485</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="V14" t="n">
-        <v>2111.789222061485</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="W14" t="n">
-        <v>1751.687408596076</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="X14" t="n">
-        <v>1751.687408596076</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="Y14" t="n">
-        <v>1343.401284895729</v>
+        <v>2159.124995325876</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>47.41718474356106</v>
       </c>
       <c r="I15" t="n">
-        <v>74.36658772664222</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J15" t="n">
-        <v>168.6788003306393</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K15" t="n">
-        <v>329.8733934990791</v>
+        <v>329.8733934990793</v>
       </c>
       <c r="L15" t="n">
-        <v>546.6194166623899</v>
+        <v>546.61941666239</v>
       </c>
       <c r="M15" t="n">
         <v>799.5518024445222</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>919.4797615261623</v>
+        <v>626.6298353008929</v>
       </c>
       <c r="C16" t="n">
-        <v>919.4797615261623</v>
+        <v>454.0681237841178</v>
       </c>
       <c r="D16" t="n">
-        <v>753.601768727685</v>
+        <v>454.0681237841178</v>
       </c>
       <c r="E16" t="n">
-        <v>584.1532079235276</v>
+        <v>284.3101200348551</v>
       </c>
       <c r="F16" t="n">
-        <v>407.4461538852838</v>
+        <v>107.6030659966113</v>
       </c>
       <c r="G16" t="n">
-        <v>242.7087659062011</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I16" t="n">
         <v>47.41718474356106</v>
       </c>
       <c r="J16" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K16" t="n">
-        <v>565.1557171556775</v>
+        <v>203.817577419852</v>
       </c>
       <c r="L16" t="n">
-        <v>1107.789008070307</v>
+        <v>487.8492277029595</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.97604756621</v>
+        <v>1074.636888904527</v>
       </c>
       <c r="N16" t="n">
-        <v>1548.932977367421</v>
+        <v>1644.963396976314</v>
       </c>
       <c r="O16" t="n">
-        <v>1667.224231214333</v>
+        <v>2182.923900049007</v>
       </c>
       <c r="P16" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q16" t="n">
         <v>2354.221017386493</v>
@@ -5463,25 +5463,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S16" t="n">
-        <v>2226.498790017748</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T16" t="n">
-        <v>1984.267769847949</v>
+        <v>2128.628217008255</v>
       </c>
       <c r="U16" t="n">
-        <v>1705.881344755332</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="V16" t="n">
-        <v>1418.925836625762</v>
+        <v>1563.286283786068</v>
       </c>
       <c r="W16" t="n">
-        <v>1146.899432212054</v>
+        <v>1291.259879372359</v>
       </c>
       <c r="X16" t="n">
-        <v>1146.899432212054</v>
+        <v>1045.868124705772</v>
       </c>
       <c r="Y16" t="n">
-        <v>919.4797615261623</v>
+        <v>818.44845401988</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1226.073475835819</v>
+        <v>1355.244187227398</v>
       </c>
       <c r="C17" t="n">
-        <v>1186.736680973228</v>
+        <v>917.1017144108214</v>
       </c>
       <c r="D17" t="n">
-        <v>750.8268961476721</v>
+        <v>481.1919295852659</v>
       </c>
       <c r="E17" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="F17" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G17" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H17" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I17" t="n">
-        <v>118.9365917639706</v>
+        <v>118.9365917639705</v>
       </c>
       <c r="J17" t="n">
-        <v>277.2866545754684</v>
+        <v>277.2866545754683</v>
       </c>
       <c r="K17" t="n">
         <v>514.6123507107054</v>
@@ -5533,34 +5533,34 @@
         <v>1783.894251556588</v>
       </c>
       <c r="P17" t="n">
-        <v>2052.186120006749</v>
+        <v>2052.18612000675</v>
       </c>
       <c r="Q17" t="n">
-        <v>2253.662139923804</v>
+        <v>2253.662139923805</v>
       </c>
       <c r="R17" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S17" t="n">
-        <v>2330.585524857984</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T17" t="n">
-        <v>2330.585524857984</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="U17" t="n">
-        <v>2071.515509741416</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="V17" t="n">
-        <v>2071.515509741416</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.515509741416</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="X17" t="n">
-        <v>1652.373046320727</v>
+        <v>2189.829881412652</v>
       </c>
       <c r="Y17" t="n">
-        <v>1652.373046320727</v>
+        <v>1781.543757712306</v>
       </c>
     </row>
     <row r="18">
@@ -5585,28 +5585,28 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G18" t="n">
-        <v>79.31614662250911</v>
+        <v>79.31614662250912</v>
       </c>
       <c r="H18" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I18" t="n">
-        <v>81.78656726718469</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J18" t="n">
-        <v>168.6788003306397</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8733934990794</v>
+        <v>337.2933730396216</v>
       </c>
       <c r="L18" t="n">
-        <v>546.6194166623901</v>
+        <v>554.0393962029324</v>
       </c>
       <c r="M18" t="n">
-        <v>799.5518024445223</v>
+        <v>806.9717819850646</v>
       </c>
       <c r="N18" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395047</v>
       </c>
       <c r="O18" t="n">
         <v>1296.686313021258</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>753.9112116727904</v>
+        <v>626.6298353008929</v>
       </c>
       <c r="C19" t="n">
-        <v>753.9112116727904</v>
+        <v>454.0681237841178</v>
       </c>
       <c r="D19" t="n">
-        <v>753.9112116727904</v>
+        <v>393.8822425310676</v>
       </c>
       <c r="E19" t="n">
-        <v>584.1532079235276</v>
+        <v>224.1242387818048</v>
       </c>
       <c r="F19" t="n">
-        <v>407.4461538852838</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G19" t="n">
-        <v>242.7087659062011</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I19" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J19" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K19" t="n">
-        <v>565.1557171556774</v>
+        <v>478.5760319909876</v>
       </c>
       <c r="L19" t="n">
-        <v>907.5184769287405</v>
+        <v>1021.209322905617</v>
       </c>
       <c r="M19" t="n">
-        <v>1494.306138130308</v>
+        <v>1152.39636240152</v>
       </c>
       <c r="N19" t="n">
-        <v>2064.632646202094</v>
+        <v>1297.456503005972</v>
       </c>
       <c r="O19" t="n">
-        <v>2182.923900049007</v>
+        <v>1835.417006078665</v>
       </c>
       <c r="P19" t="n">
         <v>2284.142503160617</v>
       </c>
       <c r="Q19" t="n">
-        <v>2354.221017386492</v>
+        <v>2354.221017386493</v>
       </c>
       <c r="R19" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S19" t="n">
-        <v>2226.498790017747</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T19" t="n">
-        <v>2064.090974661165</v>
+        <v>2128.628217008255</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.704549568548</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.749041438978</v>
+        <v>1563.286283786068</v>
       </c>
       <c r="W19" t="n">
-        <v>1226.72263702527</v>
+        <v>1291.259879372359</v>
       </c>
       <c r="X19" t="n">
-        <v>981.3308823586822</v>
+        <v>1045.868124705772</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.9112116727904</v>
+        <v>818.44845401988</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1118.295566722445</v>
+        <v>1347.201831992635</v>
       </c>
       <c r="C20" t="n">
-        <v>1118.295566722445</v>
+        <v>909.0593591760581</v>
       </c>
       <c r="D20" t="n">
-        <v>682.3857818968895</v>
+        <v>909.0593591760581</v>
       </c>
       <c r="E20" t="n">
-        <v>682.3857818968895</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="F20" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G20" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H20" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I20" t="n">
-        <v>118.9365917639708</v>
+        <v>118.936591763971</v>
       </c>
       <c r="J20" t="n">
         <v>277.2866545754686</v>
@@ -5758,10 +5758,10 @@
         <v>514.6123507107056</v>
       </c>
       <c r="L20" t="n">
-        <v>809.0358625400456</v>
+        <v>809.0358625400459</v>
       </c>
       <c r="M20" t="n">
-        <v>1136.638748787553</v>
+        <v>1136.638748787554</v>
       </c>
       <c r="N20" t="n">
         <v>1469.542592232819</v>
@@ -5776,28 +5776,28 @@
         <v>2253.662139923805</v>
       </c>
       <c r="R20" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S20" t="n">
-        <v>2370.859237178052</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T20" t="n">
-        <v>2159.124995325876</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="U20" t="n">
-        <v>1900.054980209308</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="V20" t="n">
-        <v>1537.438030143134</v>
+        <v>2192.643865898232</v>
       </c>
       <c r="W20" t="n">
-        <v>1537.438030143134</v>
+        <v>2192.643865898232</v>
       </c>
       <c r="X20" t="n">
-        <v>1118.295566722445</v>
+        <v>1773.501402477543</v>
       </c>
       <c r="Y20" t="n">
-        <v>1118.295566722445</v>
+        <v>1773.501402477543</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G21" t="n">
-        <v>79.31614662250911</v>
+        <v>79.31614662250912</v>
       </c>
       <c r="H21" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I21" t="n">
-        <v>74.36658772664266</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J21" t="n">
-        <v>168.6788003306397</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8733934990794</v>
+        <v>337.2933730396215</v>
       </c>
       <c r="L21" t="n">
-        <v>546.6194166623901</v>
+        <v>554.0393962029323</v>
       </c>
       <c r="M21" t="n">
-        <v>799.5518024445223</v>
+        <v>806.9717819850645</v>
       </c>
       <c r="N21" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395047</v>
       </c>
       <c r="O21" t="n">
-        <v>1296.686313021258</v>
+        <v>1304.1062925618</v>
       </c>
       <c r="P21" t="n">
-        <v>1487.307227201325</v>
+        <v>1494.727206741867</v>
       </c>
       <c r="Q21" t="n">
         <v>1614.73226019082</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>863.4916846892994</v>
+        <v>580.0078654020589</v>
       </c>
       <c r="C22" t="n">
-        <v>690.9299731725243</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="D22" t="n">
-        <v>690.9299731725243</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="E22" t="n">
-        <v>521.1719694232617</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="F22" t="n">
-        <v>344.4649153850179</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="G22" t="n">
-        <v>179.7275274059352</v>
+        <v>242.7087659062011</v>
       </c>
       <c r="H22" t="n">
-        <v>47.41718474356104</v>
+        <v>110.3984232438269</v>
       </c>
       <c r="I22" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J22" t="n">
         <v>106.5856360663958</v>
       </c>
       <c r="K22" t="n">
-        <v>203.8175774198519</v>
+        <v>203.817577419852</v>
       </c>
       <c r="L22" t="n">
-        <v>427.7501805739502</v>
+        <v>328.2409865665203</v>
       </c>
       <c r="M22" t="n">
-        <v>558.9372200698534</v>
+        <v>915.0286477680885</v>
       </c>
       <c r="N22" t="n">
-        <v>1129.26372814164</v>
+        <v>1485.355155839875</v>
       </c>
       <c r="O22" t="n">
-        <v>1667.224231214333</v>
+        <v>2023.315658912568</v>
       </c>
       <c r="P22" t="n">
-        <v>2115.949728296285</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q22" t="n">
-        <v>2354.221017386492</v>
+        <v>2354.221017386493</v>
       </c>
       <c r="R22" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S22" t="n">
-        <v>2226.498790017747</v>
+        <v>2226.498790017748</v>
       </c>
       <c r="T22" t="n">
-        <v>1984.267769847949</v>
+        <v>2082.00624710942</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.881344755332</v>
+        <v>1803.619822016803</v>
       </c>
       <c r="V22" t="n">
-        <v>1705.881344755332</v>
+        <v>1516.664313887234</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.854940341623</v>
+        <v>1244.637909473525</v>
       </c>
       <c r="X22" t="n">
-        <v>1188.463185675036</v>
+        <v>999.2461548069377</v>
       </c>
       <c r="Y22" t="n">
-        <v>1055.310303408286</v>
+        <v>771.826484121046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1377.046300778849</v>
+        <v>2036.824034011808</v>
       </c>
       <c r="C23" t="n">
-        <v>1357.419787427072</v>
+        <v>1598.681561195232</v>
       </c>
       <c r="D23" t="n">
-        <v>921.5100026015164</v>
+        <v>1162.771776369676</v>
       </c>
       <c r="E23" t="n">
-        <v>487.7352577598116</v>
+        <v>728.9970315279711</v>
       </c>
       <c r="F23" t="n">
-        <v>59.86782816901933</v>
+        <v>728.9970315279711</v>
       </c>
       <c r="G23" t="n">
-        <v>59.86782816901933</v>
+        <v>329.5027947314255</v>
       </c>
       <c r="H23" t="n">
-        <v>59.86782816901933</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="I23" t="n">
         <v>131.3872351894289</v>
@@ -5992,25 +5992,25 @@
         <v>724.9919854538447</v>
       </c>
       <c r="K23" t="n">
-        <v>1137.144521983619</v>
+        <v>962.3176815890816</v>
       </c>
       <c r="L23" t="n">
-        <v>1431.568033812959</v>
+        <v>1256.741193418422</v>
       </c>
       <c r="M23" t="n">
-        <v>1759.170920060467</v>
+        <v>1584.344079665929</v>
       </c>
       <c r="N23" t="n">
-        <v>2092.074763505732</v>
+        <v>1917.247923111195</v>
       </c>
       <c r="O23" t="n">
-        <v>2406.426422829501</v>
+        <v>2231.599582434964</v>
       </c>
       <c r="P23" t="n">
-        <v>2674.718291279663</v>
+        <v>2499.891450885126</v>
       </c>
       <c r="Q23" t="n">
-        <v>2876.194311196718</v>
+        <v>2707.04024644366</v>
       </c>
       <c r="R23" t="n">
         <v>2993.391408450966</v>
@@ -6019,22 +6019,22 @@
         <v>2993.391408450966</v>
       </c>
       <c r="T23" t="n">
-        <v>2993.391408450966</v>
+        <v>2781.657166598789</v>
       </c>
       <c r="U23" t="n">
-        <v>2993.391408450966</v>
+        <v>2522.587151482221</v>
       </c>
       <c r="V23" t="n">
-        <v>2630.774458384793</v>
+        <v>2159.970201416048</v>
       </c>
       <c r="W23" t="n">
-        <v>2630.774458384793</v>
+        <v>2036.824034011808</v>
       </c>
       <c r="X23" t="n">
-        <v>2211.631994964103</v>
+        <v>2036.824034011808</v>
       </c>
       <c r="Y23" t="n">
-        <v>1803.345871263757</v>
+        <v>2036.824034011808</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>555.1843699628735</v>
       </c>
       <c r="C24" t="n">
-        <v>448.7279087995158</v>
+        <v>448.7279087995157</v>
       </c>
       <c r="D24" t="n">
         <v>353.637619946069</v>
@@ -6059,34 +6059,34 @@
         <v>176.1333668891843</v>
       </c>
       <c r="G24" t="n">
-        <v>91.76679004796739</v>
+        <v>91.76679004796738</v>
       </c>
       <c r="H24" t="n">
-        <v>59.86782816901933</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="I24" t="n">
         <v>94.23721069264298</v>
       </c>
       <c r="J24" t="n">
-        <v>188.54942329664</v>
+        <v>188.5494232966401</v>
       </c>
       <c r="K24" t="n">
-        <v>342.3240369245377</v>
+        <v>349.7440164650798</v>
       </c>
       <c r="L24" t="n">
-        <v>559.0700600878483</v>
+        <v>566.4900396283905</v>
       </c>
       <c r="M24" t="n">
-        <v>812.0024458699805</v>
+        <v>819.4224254105227</v>
       </c>
       <c r="N24" t="n">
-        <v>1071.629199279963</v>
+        <v>1079.049178820505</v>
       </c>
       <c r="O24" t="n">
-        <v>1309.136956446716</v>
+        <v>1316.556935987258</v>
       </c>
       <c r="P24" t="n">
-        <v>1499.757870626783</v>
+        <v>1507.177850167325</v>
       </c>
       <c r="Q24" t="n">
         <v>1627.182903616279</v>
@@ -6126,16 +6126,16 @@
         <v>1104.801559413501</v>
       </c>
       <c r="C25" t="n">
-        <v>932.2398478967257</v>
+        <v>932.2398478967259</v>
       </c>
       <c r="D25" t="n">
-        <v>766.3618550982485</v>
+        <v>766.3618550982487</v>
       </c>
       <c r="E25" t="n">
-        <v>596.6038513489857</v>
+        <v>596.6038513489859</v>
       </c>
       <c r="F25" t="n">
-        <v>419.896797310742</v>
+        <v>419.8967973107422</v>
       </c>
       <c r="G25" t="n">
         <v>255.1594093316593</v>
@@ -6144,28 +6144,28 @@
         <v>122.8490666692852</v>
       </c>
       <c r="I25" t="n">
-        <v>59.86782816901933</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="J25" t="n">
-        <v>205.615964656544</v>
+        <v>205.6159646565439</v>
       </c>
       <c r="K25" t="n">
         <v>577.6063605811356</v>
       </c>
       <c r="L25" t="n">
-        <v>1120.239651495765</v>
+        <v>702.029769727804</v>
       </c>
       <c r="M25" t="n">
-        <v>1710.910558172581</v>
+        <v>1292.70067640462</v>
       </c>
       <c r="N25" t="n">
-        <v>2171.465148640335</v>
+        <v>1863.027184476406</v>
       </c>
       <c r="O25" t="n">
-        <v>2289.756402487247</v>
+        <v>2400.9876875491</v>
       </c>
       <c r="P25" t="n">
-        <v>2738.481899569199</v>
+        <v>2738.481899569198</v>
       </c>
       <c r="Q25" t="n">
         <v>2976.753188659406</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1035.46406881942</v>
+        <v>2030.916718760895</v>
       </c>
       <c r="C26" t="n">
-        <v>597.3215960028433</v>
+        <v>1592.774245944319</v>
       </c>
       <c r="D26" t="n">
-        <v>487.7352577598116</v>
+        <v>1156.864461118763</v>
       </c>
       <c r="E26" t="n">
-        <v>487.7352577598116</v>
+        <v>1156.864461118763</v>
       </c>
       <c r="F26" t="n">
-        <v>59.86782816901933</v>
+        <v>728.9970315279711</v>
       </c>
       <c r="G26" t="n">
-        <v>59.86782816901933</v>
+        <v>329.5027947314255</v>
       </c>
       <c r="H26" t="n">
         <v>59.86782816901933</v>
@@ -6226,25 +6226,25 @@
         <v>131.3872351894289</v>
       </c>
       <c r="J26" t="n">
-        <v>289.7372980009267</v>
+        <v>724.9919854538447</v>
       </c>
       <c r="K26" t="n">
-        <v>527.0629941361636</v>
+        <v>967.9904572305616</v>
       </c>
       <c r="L26" t="n">
-        <v>821.4865059655036</v>
+        <v>1262.413969059902</v>
       </c>
       <c r="M26" t="n">
-        <v>1149.089392213011</v>
+        <v>1590.01685530741</v>
       </c>
       <c r="N26" t="n">
-        <v>1481.993235658276</v>
+        <v>1922.920698752675</v>
       </c>
       <c r="O26" t="n">
-        <v>1796.344894982046</v>
+        <v>2237.272358076444</v>
       </c>
       <c r="P26" t="n">
-        <v>2064.636763432207</v>
+        <v>2505.564226526606</v>
       </c>
       <c r="Q26" t="n">
         <v>2707.040246443661</v>
@@ -6256,22 +6256,22 @@
         <v>2953.117696130898</v>
       </c>
       <c r="T26" t="n">
-        <v>2953.117696130898</v>
+        <v>2741.383454278721</v>
       </c>
       <c r="U26" t="n">
-        <v>2694.04768101433</v>
+        <v>2482.313439162153</v>
       </c>
       <c r="V26" t="n">
-        <v>2694.04768101433</v>
+        <v>2435.772173349862</v>
       </c>
       <c r="W26" t="n">
-        <v>2289.192226425364</v>
+        <v>2030.916718760895</v>
       </c>
       <c r="X26" t="n">
-        <v>1870.049763004674</v>
+        <v>2030.916718760895</v>
       </c>
       <c r="Y26" t="n">
-        <v>1461.763639304328</v>
+        <v>2030.916718760895</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>94.23721069264298</v>
       </c>
       <c r="J27" t="n">
-        <v>188.54942329664</v>
+        <v>188.5494232966401</v>
       </c>
       <c r="K27" t="n">
         <v>349.7440164650798</v>
       </c>
       <c r="L27" t="n">
-        <v>566.4900396283904</v>
+        <v>566.4900396283905</v>
       </c>
       <c r="M27" t="n">
-        <v>819.4224254105226</v>
+        <v>819.4224254105227</v>
       </c>
       <c r="N27" t="n">
-        <v>1071.629199279963</v>
+        <v>1079.049178820505</v>
       </c>
       <c r="O27" t="n">
         <v>1309.136956446716</v>
@@ -6363,16 +6363,16 @@
         <v>1104.801559413501</v>
       </c>
       <c r="C28" t="n">
-        <v>932.2398478967257</v>
+        <v>932.2398478967258</v>
       </c>
       <c r="D28" t="n">
         <v>766.3618550982485</v>
       </c>
       <c r="E28" t="n">
-        <v>596.6038513489857</v>
+        <v>596.6038513489858</v>
       </c>
       <c r="F28" t="n">
-        <v>419.8967973107419</v>
+        <v>419.896797310742</v>
       </c>
       <c r="G28" t="n">
         <v>255.1594093316593</v>
@@ -6384,25 +6384,25 @@
         <v>59.86782816901933</v>
       </c>
       <c r="J28" t="n">
-        <v>205.615964656544</v>
+        <v>119.0362794918541</v>
       </c>
       <c r="K28" t="n">
-        <v>577.6063605811356</v>
+        <v>216.2682208453102</v>
       </c>
       <c r="L28" t="n">
-        <v>1120.239651495765</v>
+        <v>758.9015117599397</v>
       </c>
       <c r="M28" t="n">
-        <v>1623.728194500412</v>
+        <v>1349.572418436756</v>
       </c>
       <c r="N28" t="n">
-        <v>1751.795899414553</v>
+        <v>1919.898926508542</v>
       </c>
       <c r="O28" t="n">
-        <v>2289.756402487247</v>
+        <v>2457.859429581235</v>
       </c>
       <c r="P28" t="n">
-        <v>2738.481899569199</v>
+        <v>2906.584926663188</v>
       </c>
       <c r="Q28" t="n">
         <v>2976.753188659406</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>933.9200858111515</v>
+        <v>1880.906102725016</v>
       </c>
       <c r="C29" t="n">
-        <v>495.7776129945748</v>
+        <v>1442.763629908439</v>
       </c>
       <c r="D29" t="n">
-        <v>59.86782816901933</v>
+        <v>1006.853845082884</v>
       </c>
       <c r="E29" t="n">
-        <v>59.86782816901933</v>
+        <v>573.0791002411788</v>
       </c>
       <c r="F29" t="n">
-        <v>59.86782816901933</v>
+        <v>145.2116706503866</v>
       </c>
       <c r="G29" t="n">
-        <v>59.86782816901933</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="H29" t="n">
-        <v>59.86782816901933</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="I29" t="n">
         <v>131.3872351894289</v>
       </c>
       <c r="J29" t="n">
-        <v>427.2463207069298</v>
+        <v>289.7372980009267</v>
       </c>
       <c r="K29" t="n">
-        <v>664.5720168421667</v>
+        <v>1030.601671592541</v>
       </c>
       <c r="L29" t="n">
-        <v>958.9955286715066</v>
+        <v>1431.568033812958</v>
       </c>
       <c r="M29" t="n">
-        <v>1286.598414919014</v>
+        <v>1759.170920060466</v>
       </c>
       <c r="N29" t="n">
-        <v>1619.50225836428</v>
+        <v>2092.074763505731</v>
       </c>
       <c r="O29" t="n">
-        <v>1933.853917688049</v>
+        <v>2406.426422829501</v>
       </c>
       <c r="P29" t="n">
-        <v>2674.718291279663</v>
+        <v>2674.718291279662</v>
       </c>
       <c r="Q29" t="n">
-        <v>2876.194311196718</v>
+        <v>2876.194311196717</v>
       </c>
       <c r="R29" t="n">
         <v>2993.391408450966</v>
       </c>
       <c r="S29" t="n">
-        <v>2953.117696130898</v>
+        <v>2953.117696130897</v>
       </c>
       <c r="T29" t="n">
-        <v>2741.383454278721</v>
+        <v>2953.117696130897</v>
       </c>
       <c r="U29" t="n">
-        <v>2482.313439162153</v>
+        <v>2694.04768101433</v>
       </c>
       <c r="V29" t="n">
-        <v>2119.69648909598</v>
+        <v>2694.04768101433</v>
       </c>
       <c r="W29" t="n">
-        <v>1714.841034507013</v>
+        <v>2289.192226425363</v>
       </c>
       <c r="X29" t="n">
-        <v>1342.206209511498</v>
+        <v>2289.192226425363</v>
       </c>
       <c r="Y29" t="n">
-        <v>933.9200858111515</v>
+        <v>1880.906102725016</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>555.1843699628735</v>
       </c>
       <c r="C30" t="n">
-        <v>448.7279087995158</v>
+        <v>448.7279087995157</v>
       </c>
       <c r="D30" t="n">
         <v>353.637619946069</v>
@@ -6533,25 +6533,25 @@
         <v>176.1333668891843</v>
       </c>
       <c r="G30" t="n">
-        <v>91.76679004796739</v>
+        <v>91.76679004796738</v>
       </c>
       <c r="H30" t="n">
-        <v>59.86782816901933</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="I30" t="n">
         <v>94.23721069264298</v>
       </c>
       <c r="J30" t="n">
-        <v>188.54942329664</v>
+        <v>188.5494232966401</v>
       </c>
       <c r="K30" t="n">
         <v>349.7440164650798</v>
       </c>
       <c r="L30" t="n">
-        <v>566.4900396283904</v>
+        <v>566.4900396283905</v>
       </c>
       <c r="M30" t="n">
-        <v>819.4224254105226</v>
+        <v>819.4224254105227</v>
       </c>
       <c r="N30" t="n">
         <v>1079.049178820505</v>
@@ -6560,7 +6560,7 @@
         <v>1316.556935987258</v>
       </c>
       <c r="P30" t="n">
-        <v>1499.757870626783</v>
+        <v>1507.177850167325</v>
       </c>
       <c r="Q30" t="n">
         <v>1627.182903616279</v>
@@ -6600,16 +6600,16 @@
         <v>1104.801559413501</v>
       </c>
       <c r="C31" t="n">
-        <v>932.2398478967257</v>
+        <v>932.2398478967259</v>
       </c>
       <c r="D31" t="n">
-        <v>766.3618550982485</v>
+        <v>766.3618550982486</v>
       </c>
       <c r="E31" t="n">
-        <v>596.6038513489857</v>
+        <v>596.6038513489858</v>
       </c>
       <c r="F31" t="n">
-        <v>419.8967973107419</v>
+        <v>419.896797310742</v>
       </c>
       <c r="G31" t="n">
         <v>255.1594093316593</v>
@@ -6618,28 +6618,28 @@
         <v>122.8490666692852</v>
       </c>
       <c r="I31" t="n">
-        <v>59.86782816901933</v>
+        <v>59.86782816901931</v>
       </c>
       <c r="J31" t="n">
-        <v>119.0362794918541</v>
+        <v>205.6159646565439</v>
       </c>
       <c r="K31" t="n">
-        <v>466.3750755192826</v>
+        <v>577.6063605811356</v>
       </c>
       <c r="L31" t="n">
-        <v>590.7984846659509</v>
+        <v>1120.239651495765</v>
       </c>
       <c r="M31" t="n">
-        <v>1181.469391342767</v>
+        <v>1349.662166207098</v>
       </c>
       <c r="N31" t="n">
-        <v>1751.795899414553</v>
+        <v>1919.988674278884</v>
       </c>
       <c r="O31" t="n">
-        <v>2289.756402487247</v>
+        <v>2457.949177351578</v>
       </c>
       <c r="P31" t="n">
-        <v>2738.481899569199</v>
+        <v>2906.67467443353</v>
       </c>
       <c r="Q31" t="n">
         <v>2976.753188659406</v>
@@ -6648,7 +6648,7 @@
         <v>2993.391408450966</v>
       </c>
       <c r="S31" t="n">
-        <v>2849.030961290661</v>
+        <v>2849.03096129066</v>
       </c>
       <c r="T31" t="n">
         <v>2606.799941120863</v>
@@ -6657,7 +6657,7 @@
         <v>2328.413516028245</v>
       </c>
       <c r="V31" t="n">
-        <v>2041.458007898676</v>
+        <v>2041.458007898675</v>
       </c>
       <c r="W31" t="n">
         <v>1769.431603484967</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1156.864461118763</v>
+        <v>1285.110794910725</v>
       </c>
       <c r="C32" t="n">
-        <v>1156.864461118763</v>
+        <v>1285.110794910725</v>
       </c>
       <c r="D32" t="n">
-        <v>1156.864461118763</v>
+        <v>1285.110794910725</v>
       </c>
       <c r="E32" t="n">
-        <v>1156.864461118763</v>
+        <v>851.3360500690205</v>
       </c>
       <c r="F32" t="n">
-        <v>728.9970315279711</v>
+        <v>423.4686204782283</v>
       </c>
       <c r="G32" t="n">
-        <v>329.5027947314255</v>
+        <v>59.86782816901933</v>
       </c>
       <c r="H32" t="n">
         <v>59.86782816901933</v>
@@ -6700,28 +6700,28 @@
         <v>131.3872351894289</v>
       </c>
       <c r="J32" t="n">
-        <v>289.7372980009267</v>
+        <v>724.9919854538447</v>
       </c>
       <c r="K32" t="n">
-        <v>527.0629941361636</v>
+        <v>962.3176815890816</v>
       </c>
       <c r="L32" t="n">
-        <v>821.4865059655036</v>
+        <v>1256.741193418422</v>
       </c>
       <c r="M32" t="n">
-        <v>1149.089392213011</v>
+        <v>1584.344079665929</v>
       </c>
       <c r="N32" t="n">
-        <v>1481.993235658276</v>
+        <v>1917.247923111195</v>
       </c>
       <c r="O32" t="n">
-        <v>2222.857609249891</v>
+        <v>2231.599582434964</v>
       </c>
       <c r="P32" t="n">
-        <v>2674.718291279663</v>
+        <v>2499.891450885126</v>
       </c>
       <c r="Q32" t="n">
-        <v>2876.194311196718</v>
+        <v>2707.040246443661</v>
       </c>
       <c r="R32" t="n">
         <v>2993.391408450966</v>
@@ -6730,22 +6730,22 @@
         <v>2953.117696130898</v>
       </c>
       <c r="T32" t="n">
-        <v>2953.117696130898</v>
+        <v>2741.383454278721</v>
       </c>
       <c r="U32" t="n">
-        <v>2953.117696130898</v>
+        <v>2482.313439162153</v>
       </c>
       <c r="V32" t="n">
-        <v>2590.500746064724</v>
+        <v>2119.69648909598</v>
       </c>
       <c r="W32" t="n">
-        <v>2410.592618724707</v>
+        <v>2119.69648909598</v>
       </c>
       <c r="X32" t="n">
-        <v>1991.450155304018</v>
+        <v>2119.69648909598</v>
       </c>
       <c r="Y32" t="n">
-        <v>1583.164031603671</v>
+        <v>1711.410365395633</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1859.414151357508</v>
+        <v>555.1843699628735</v>
       </c>
       <c r="C33" t="n">
-        <v>1752.95769019415</v>
+        <v>448.7279087995158</v>
       </c>
       <c r="D33" t="n">
-        <v>1657.867401340703</v>
+        <v>353.637619946069</v>
       </c>
       <c r="E33" t="n">
-        <v>1563.746986667657</v>
+        <v>259.5172052730227</v>
       </c>
       <c r="F33" t="n">
-        <v>1480.363148283819</v>
+        <v>176.1333668891843</v>
       </c>
       <c r="G33" t="n">
-        <v>1395.996571442602</v>
+        <v>91.76679004796739</v>
       </c>
       <c r="H33" t="n">
-        <v>1364.097609563654</v>
+        <v>59.86782816901933</v>
       </c>
       <c r="I33" t="n">
-        <v>1398.466992087278</v>
+        <v>94.23721069264298</v>
       </c>
       <c r="J33" t="n">
-        <v>1492.779204691274</v>
+        <v>188.5494232966401</v>
       </c>
       <c r="K33" t="n">
-        <v>1653.973797859714</v>
+        <v>349.7440164650798</v>
       </c>
       <c r="L33" t="n">
-        <v>1870.719821023025</v>
+        <v>566.4900396283905</v>
       </c>
       <c r="M33" t="n">
-        <v>2123.652206805157</v>
+        <v>819.4224254105227</v>
       </c>
       <c r="N33" t="n">
-        <v>2383.278960215139</v>
+        <v>1079.049178820505</v>
       </c>
       <c r="O33" t="n">
-        <v>2613.36673784135</v>
+        <v>1316.556935987258</v>
       </c>
       <c r="P33" t="n">
-        <v>2803.987652021417</v>
+        <v>1507.177850167325</v>
       </c>
       <c r="Q33" t="n">
-        <v>2931.412685010913</v>
+        <v>1627.182903616279</v>
       </c>
       <c r="R33" t="n">
-        <v>2993.391408450966</v>
+        <v>1689.161627056332</v>
       </c>
       <c r="S33" t="n">
-        <v>2948.854401163198</v>
+        <v>1644.624619768564</v>
       </c>
       <c r="T33" t="n">
-        <v>2822.781079196864</v>
+        <v>1518.55129780223</v>
       </c>
       <c r="U33" t="n">
-        <v>2646.511539623977</v>
+        <v>1342.281758229343</v>
       </c>
       <c r="V33" t="n">
-        <v>2447.394021685976</v>
+        <v>1143.164240291342</v>
       </c>
       <c r="W33" t="n">
-        <v>2262.07126741917</v>
+        <v>957.8414860245359</v>
       </c>
       <c r="X33" t="n">
-        <v>2107.20383165805</v>
+        <v>802.9740502634158</v>
       </c>
       <c r="Y33" t="n">
-        <v>1980.718052437271</v>
+        <v>676.4882710426366</v>
       </c>
     </row>
     <row r="34">
@@ -6846,10 +6846,10 @@
         <v>596.6038513489857</v>
       </c>
       <c r="F34" t="n">
-        <v>419.896797310742</v>
+        <v>419.8967973107419</v>
       </c>
       <c r="G34" t="n">
-        <v>255.1594093316593</v>
+        <v>255.1594093316594</v>
       </c>
       <c r="H34" t="n">
         <v>122.8490666692852</v>
@@ -6864,16 +6864,16 @@
         <v>577.6063605811356</v>
       </c>
       <c r="L34" t="n">
-        <v>702.029769727804</v>
+        <v>938.3053786362924</v>
       </c>
       <c r="M34" t="n">
-        <v>1292.70067640462</v>
+        <v>1528.976285313109</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.027184476406</v>
+        <v>2099.302793384895</v>
       </c>
       <c r="O34" t="n">
-        <v>2289.756402487247</v>
+        <v>2637.263296457588</v>
       </c>
       <c r="P34" t="n">
         <v>2738.481899569199</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1563.113120202844</v>
+        <v>1140.539987670775</v>
       </c>
       <c r="C35" t="n">
-        <v>1124.970647386267</v>
+        <v>702.3975148541986</v>
       </c>
       <c r="D35" t="n">
-        <v>689.0608625607117</v>
+        <v>702.3975148541986</v>
       </c>
       <c r="E35" t="n">
-        <v>255.2861177190069</v>
+        <v>702.3975148541986</v>
       </c>
       <c r="F35" t="n">
-        <v>255.2861177190069</v>
+        <v>274.5300852634063</v>
       </c>
       <c r="G35" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H35" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I35" t="n">
         <v>118.9365917639706</v>
@@ -6940,10 +6940,10 @@
         <v>277.2866545754684</v>
       </c>
       <c r="K35" t="n">
-        <v>514.6123507107056</v>
+        <v>514.6123507107054</v>
       </c>
       <c r="L35" t="n">
-        <v>809.0358625400455</v>
+        <v>809.0358625400454</v>
       </c>
       <c r="M35" t="n">
         <v>1136.638748787553</v>
@@ -6955,34 +6955,34 @@
         <v>1783.894251556588</v>
       </c>
       <c r="P35" t="n">
-        <v>2052.186120006749</v>
+        <v>2052.18612000675</v>
       </c>
       <c r="Q35" t="n">
-        <v>2253.662139923804</v>
+        <v>2253.662139923805</v>
       </c>
       <c r="R35" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S35" t="n">
-        <v>2330.585524857984</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T35" t="n">
-        <v>2330.585524857984</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="U35" t="n">
-        <v>2330.585524857984</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="V35" t="n">
         <v>1967.968574791811</v>
       </c>
       <c r="W35" t="n">
-        <v>1563.113120202844</v>
+        <v>1967.968574791811</v>
       </c>
       <c r="X35" t="n">
-        <v>1563.113120202844</v>
+        <v>1548.826111371122</v>
       </c>
       <c r="Y35" t="n">
-        <v>1563.113120202844</v>
+        <v>1140.539987670775</v>
       </c>
     </row>
     <row r="36">
@@ -7007,22 +7007,22 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G36" t="n">
-        <v>79.31614662250911</v>
+        <v>79.31614662250912</v>
       </c>
       <c r="H36" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I36" t="n">
-        <v>81.78656726718469</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J36" t="n">
-        <v>176.0987798711818</v>
+        <v>168.6788003306397</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2933730396215</v>
+        <v>329.8733934990794</v>
       </c>
       <c r="L36" t="n">
-        <v>554.0393962029322</v>
+        <v>546.6194166623901</v>
       </c>
       <c r="M36" t="n">
         <v>799.5518024445223</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.0880068595743</v>
+        <v>482.2693881405876</v>
       </c>
       <c r="C37" t="n">
-        <v>501.5262953427992</v>
+        <v>482.2693881405876</v>
       </c>
       <c r="D37" t="n">
-        <v>412.4667696554638</v>
+        <v>482.2693881405876</v>
       </c>
       <c r="E37" t="n">
-        <v>242.7087659062011</v>
+        <v>482.2693881405876</v>
       </c>
       <c r="F37" t="n">
-        <v>242.7087659062011</v>
+        <v>305.5623341023438</v>
       </c>
       <c r="G37" t="n">
-        <v>242.7087659062011</v>
+        <v>140.8249461232611</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I37" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J37" t="n">
         <v>106.5856360663958</v>
       </c>
       <c r="K37" t="n">
-        <v>203.8175774198519</v>
+        <v>478.5760319909875</v>
       </c>
       <c r="L37" t="n">
-        <v>328.2409865665203</v>
+        <v>870.0089837315951</v>
       </c>
       <c r="M37" t="n">
-        <v>915.0286477680883</v>
+        <v>1001.196023227498</v>
       </c>
       <c r="N37" t="n">
         <v>1129.26372814164</v>
@@ -7113,16 +7113,16 @@
         <v>1667.224231214333</v>
       </c>
       <c r="P37" t="n">
-        <v>2115.949728296285</v>
+        <v>2115.949728296286</v>
       </c>
       <c r="Q37" t="n">
-        <v>2354.221017386492</v>
+        <v>2354.221017386493</v>
       </c>
       <c r="R37" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S37" t="n">
-        <v>2226.498790017747</v>
+        <v>2226.498790017748</v>
       </c>
       <c r="T37" t="n">
         <v>1984.267769847949</v>
@@ -7137,10 +7137,10 @@
         <v>1146.899432212054</v>
       </c>
       <c r="X37" t="n">
-        <v>901.5076775454661</v>
+        <v>901.5076775454665</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.0880068595743</v>
+        <v>674.0880068595748</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.31494748033231</v>
+        <v>1349.336871976486</v>
       </c>
       <c r="C38" t="n">
-        <v>50.31494748033231</v>
+        <v>911.1943991599088</v>
       </c>
       <c r="D38" t="n">
-        <v>47.41718474356104</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="E38" t="n">
-        <v>47.41718474356104</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="F38" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G38" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H38" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I38" t="n">
-        <v>118.9365917639706</v>
+        <v>118.9365917639714</v>
       </c>
       <c r="J38" t="n">
-        <v>277.2866545754684</v>
+        <v>277.2866545754693</v>
       </c>
       <c r="K38" t="n">
-        <v>514.6123507107056</v>
+        <v>514.6123507107062</v>
       </c>
       <c r="L38" t="n">
-        <v>809.0358625400455</v>
+        <v>809.0358625400463</v>
       </c>
       <c r="M38" t="n">
-        <v>1136.638748787553</v>
+        <v>1136.638748787554</v>
       </c>
       <c r="N38" t="n">
         <v>1469.542592232819</v>
@@ -7192,34 +7192,34 @@
         <v>1783.894251556588</v>
       </c>
       <c r="P38" t="n">
-        <v>2052.186120006749</v>
+        <v>2052.18612000675</v>
       </c>
       <c r="Q38" t="n">
-        <v>2253.662139923804</v>
+        <v>2253.662139923805</v>
       </c>
       <c r="R38" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S38" t="n">
-        <v>2330.585524857984</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T38" t="n">
-        <v>2330.585524857984</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="U38" t="n">
-        <v>2071.515509741416</v>
+        <v>1900.054980209308</v>
       </c>
       <c r="V38" t="n">
-        <v>1708.898559675243</v>
+        <v>1537.438030143135</v>
       </c>
       <c r="W38" t="n">
-        <v>1304.043105086276</v>
+        <v>1537.438030143135</v>
       </c>
       <c r="X38" t="n">
-        <v>884.9006416655867</v>
+        <v>1537.438030143135</v>
       </c>
       <c r="Y38" t="n">
-        <v>476.6145179652401</v>
+        <v>1349.336871976486</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G39" t="n">
-        <v>79.31614662250911</v>
+        <v>79.31614662250912</v>
       </c>
       <c r="H39" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I39" t="n">
-        <v>74.36658772664266</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J39" t="n">
-        <v>168.6788003306397</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K39" t="n">
-        <v>329.8733934990794</v>
+        <v>337.2933730396215</v>
       </c>
       <c r="L39" t="n">
-        <v>546.6194166623901</v>
+        <v>554.0393962029323</v>
       </c>
       <c r="M39" t="n">
-        <v>799.5518024445223</v>
+        <v>806.9717819850645</v>
       </c>
       <c r="N39" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395047</v>
       </c>
       <c r="O39" t="n">
-        <v>1296.686313021258</v>
+        <v>1304.1062925618</v>
       </c>
       <c r="P39" t="n">
         <v>1487.307227201325</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.350915988043</v>
+        <v>626.6298353008929</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7892044712677</v>
+        <v>454.0681237841178</v>
       </c>
       <c r="D40" t="n">
-        <v>753.9112116727904</v>
+        <v>288.1901309856405</v>
       </c>
       <c r="E40" t="n">
-        <v>584.1532079235276</v>
+        <v>288.1901309856405</v>
       </c>
       <c r="F40" t="n">
-        <v>407.4461538852838</v>
+        <v>111.4830769473967</v>
       </c>
       <c r="G40" t="n">
-        <v>242.7087659062011</v>
+        <v>111.4830769473967</v>
       </c>
       <c r="H40" t="n">
         <v>110.3984232438269</v>
       </c>
       <c r="I40" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J40" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K40" t="n">
-        <v>290.3972625845418</v>
+        <v>203.817577419852</v>
       </c>
       <c r="L40" t="n">
-        <v>833.0305534991712</v>
+        <v>746.4508683344815</v>
       </c>
       <c r="M40" t="n">
-        <v>964.2175929950746</v>
+        <v>1333.23852953605</v>
       </c>
       <c r="N40" t="n">
-        <v>1129.26372814164</v>
+        <v>1903.565037607836</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.224231214333</v>
+        <v>2182.923900049007</v>
       </c>
       <c r="P40" t="n">
-        <v>2115.949728296285</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q40" t="n">
-        <v>2354.221017386492</v>
+        <v>2354.221017386493</v>
       </c>
       <c r="R40" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S40" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T40" t="n">
-        <v>2128.628217008254</v>
+        <v>2128.628217008255</v>
       </c>
       <c r="U40" t="n">
         <v>1850.241791915637</v>
       </c>
       <c r="V40" t="n">
-        <v>1850.241791915637</v>
+        <v>1563.286283786068</v>
       </c>
       <c r="W40" t="n">
-        <v>1578.215387501928</v>
+        <v>1291.259879372359</v>
       </c>
       <c r="X40" t="n">
-        <v>1332.823632835341</v>
+        <v>1045.868124705772</v>
       </c>
       <c r="Y40" t="n">
-        <v>1105.403962149449</v>
+        <v>818.44845401988</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>918.0172469214364</v>
+        <v>1783.11161681819</v>
       </c>
       <c r="C41" t="n">
-        <v>752.9619361315227</v>
+        <v>1344.969144001614</v>
       </c>
       <c r="D41" t="n">
-        <v>317.0521513059672</v>
+        <v>909.0593591760581</v>
       </c>
       <c r="E41" t="n">
-        <v>317.0521513059672</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="F41" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G41" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H41" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I41" t="n">
-        <v>118.9365917639706</v>
+        <v>118.936591763971</v>
       </c>
       <c r="J41" t="n">
-        <v>277.2866545754684</v>
+        <v>277.2866545754686</v>
       </c>
       <c r="K41" t="n">
         <v>514.6123507107056</v>
       </c>
       <c r="L41" t="n">
-        <v>809.0358625400455</v>
+        <v>809.0358625400459</v>
       </c>
       <c r="M41" t="n">
-        <v>1136.638748787553</v>
+        <v>1136.638748787554</v>
       </c>
       <c r="N41" t="n">
         <v>1469.542592232819</v>
@@ -7429,34 +7429,34 @@
         <v>1783.894251556588</v>
       </c>
       <c r="P41" t="n">
-        <v>2052.186120006749</v>
+        <v>2052.18612000675</v>
       </c>
       <c r="Q41" t="n">
-        <v>2253.662139923804</v>
+        <v>2253.662139923805</v>
       </c>
       <c r="R41" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S41" t="n">
-        <v>2370.859237178052</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T41" t="n">
-        <v>2370.859237178052</v>
+        <v>2118.851283005808</v>
       </c>
       <c r="U41" t="n">
-        <v>2111.789222061484</v>
+        <v>2118.851283005808</v>
       </c>
       <c r="V41" t="n">
-        <v>1749.172271995311</v>
+        <v>2118.851283005808</v>
       </c>
       <c r="W41" t="n">
-        <v>1344.316817406344</v>
+        <v>2118.851283005808</v>
       </c>
       <c r="X41" t="n">
-        <v>1344.316817406344</v>
+        <v>2118.851283005808</v>
       </c>
       <c r="Y41" t="n">
-        <v>1344.316817406344</v>
+        <v>2118.851283005808</v>
       </c>
     </row>
     <row r="42">
@@ -7481,13 +7481,13 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G42" t="n">
-        <v>79.31614662250911</v>
+        <v>79.31614662250912</v>
       </c>
       <c r="H42" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I42" t="n">
-        <v>81.78656726718469</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J42" t="n">
         <v>176.0987798711818</v>
@@ -7496,19 +7496,19 @@
         <v>337.2933730396215</v>
       </c>
       <c r="L42" t="n">
-        <v>554.0393962029322</v>
+        <v>554.0393962029323</v>
       </c>
       <c r="M42" t="n">
-        <v>806.9717819850644</v>
+        <v>806.9717819850645</v>
       </c>
       <c r="N42" t="n">
-        <v>1066.598535395046</v>
+        <v>1066.598535395047</v>
       </c>
       <c r="O42" t="n">
         <v>1304.1062925618</v>
       </c>
       <c r="P42" t="n">
-        <v>1494.727206741867</v>
+        <v>1487.307227201325</v>
       </c>
       <c r="Q42" t="n">
         <v>1614.73226019082</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>724.4976233086276</v>
+        <v>915.643861949799</v>
       </c>
       <c r="C43" t="n">
-        <v>724.4976233086276</v>
+        <v>743.0821504330239</v>
       </c>
       <c r="D43" t="n">
-        <v>558.6196305101503</v>
+        <v>577.2041576345466</v>
       </c>
       <c r="E43" t="n">
-        <v>388.8616267608876</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="F43" t="n">
-        <v>212.1545727226438</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="G43" t="n">
-        <v>47.41718474356104</v>
+        <v>242.7087659062011</v>
       </c>
       <c r="H43" t="n">
-        <v>47.41718474356104</v>
+        <v>110.3984232438269</v>
       </c>
       <c r="I43" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J43" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K43" t="n">
-        <v>565.1557171556774</v>
+        <v>203.817577419852</v>
       </c>
       <c r="L43" t="n">
-        <v>1107.789008070307</v>
+        <v>746.4508683344815</v>
       </c>
       <c r="M43" t="n">
-        <v>1238.97604756621</v>
+        <v>877.6379078303847</v>
       </c>
       <c r="N43" t="n">
-        <v>1548.932977367421</v>
+        <v>1447.964415902171</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.224231214333</v>
+        <v>1985.924918974865</v>
       </c>
       <c r="P43" t="n">
-        <v>2115.949728296285</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q43" t="n">
-        <v>2354.221017386492</v>
+        <v>2354.221017386493</v>
       </c>
       <c r="R43" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S43" t="n">
-        <v>2370.859237178052</v>
+        <v>2226.498790017748</v>
       </c>
       <c r="T43" t="n">
-        <v>2128.628217008254</v>
+        <v>2139.255818564543</v>
       </c>
       <c r="U43" t="n">
-        <v>1850.241791915637</v>
+        <v>2139.255818564543</v>
       </c>
       <c r="V43" t="n">
-        <v>1563.286283786067</v>
+        <v>1852.300310434974</v>
       </c>
       <c r="W43" t="n">
-        <v>1389.127667380094</v>
+        <v>1580.273906021265</v>
       </c>
       <c r="X43" t="n">
-        <v>1143.735912713506</v>
+        <v>1334.882151354678</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.3162420276146</v>
+        <v>1107.462480668786</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1563.113120202844</v>
+        <v>1911.443061437295</v>
       </c>
       <c r="C44" t="n">
-        <v>1563.113120202844</v>
+        <v>1473.300588620718</v>
       </c>
       <c r="D44" t="n">
-        <v>1144.413817693305</v>
+        <v>1473.300588620718</v>
       </c>
       <c r="E44" t="n">
-        <v>1144.413817693305</v>
+        <v>1039.525843779013</v>
       </c>
       <c r="F44" t="n">
-        <v>716.5463881025128</v>
+        <v>611.6584141882213</v>
       </c>
       <c r="G44" t="n">
         <v>317.0521513059672</v>
@@ -7645,7 +7645,7 @@
         <v>47.41718474356104</v>
       </c>
       <c r="I44" t="n">
-        <v>118.9365917639705</v>
+        <v>118.9365917639708</v>
       </c>
       <c r="J44" t="n">
         <v>277.2866545754686</v>
@@ -7684,16 +7684,16 @@
         <v>2330.585524857984</v>
       </c>
       <c r="V44" t="n">
-        <v>1967.968574791811</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="W44" t="n">
-        <v>1563.113120202844</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="X44" t="n">
-        <v>1563.113120202844</v>
+        <v>1911.443061437295</v>
       </c>
       <c r="Y44" t="n">
-        <v>1563.113120202844</v>
+        <v>1911.443061437295</v>
       </c>
     </row>
     <row r="45">
@@ -7745,7 +7745,7 @@
         <v>1304.1062925618</v>
       </c>
       <c r="P45" t="n">
-        <v>1494.727206741867</v>
+        <v>1487.307227201325</v>
       </c>
       <c r="Q45" t="n">
         <v>1614.73226019082</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>818.4484540198796</v>
+        <v>482.2693881405872</v>
       </c>
       <c r="C46" t="n">
-        <v>645.8867425031045</v>
+        <v>309.7076766238121</v>
       </c>
       <c r="D46" t="n">
-        <v>480.0087497046272</v>
+        <v>143.8296838253348</v>
       </c>
       <c r="E46" t="n">
-        <v>310.2507459553645</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="F46" t="n">
-        <v>275.1358112229096</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="G46" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I46" t="n">
         <v>47.41718474356104</v>
       </c>
       <c r="J46" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K46" t="n">
-        <v>565.1557171556774</v>
+        <v>203.817577419852</v>
       </c>
       <c r="L46" t="n">
-        <v>870.0089837315946</v>
+        <v>746.4508683344815</v>
       </c>
       <c r="M46" t="n">
-        <v>1001.196023227498</v>
+        <v>877.6379078303847</v>
       </c>
       <c r="N46" t="n">
-        <v>1129.26372814164</v>
+        <v>1447.964415902171</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.224231214333</v>
+        <v>1985.924918974865</v>
       </c>
       <c r="P46" t="n">
-        <v>2115.949728296285</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q46" t="n">
         <v>2354.221017386492</v>
@@ -7833,25 +7833,25 @@
         <v>2370.859237178052</v>
       </c>
       <c r="S46" t="n">
-        <v>2370.859237178052</v>
+        <v>2226.498790017747</v>
       </c>
       <c r="T46" t="n">
-        <v>2128.628217008254</v>
+        <v>1984.267769847949</v>
       </c>
       <c r="U46" t="n">
-        <v>1850.241791915637</v>
+        <v>1705.881344755332</v>
       </c>
       <c r="V46" t="n">
-        <v>1563.286283786067</v>
+        <v>1418.925836625762</v>
       </c>
       <c r="W46" t="n">
-        <v>1291.259879372359</v>
+        <v>1146.899432212054</v>
       </c>
       <c r="X46" t="n">
-        <v>1045.868124705771</v>
+        <v>901.5076775454661</v>
       </c>
       <c r="Y46" t="n">
-        <v>818.4484540198796</v>
+        <v>674.0880068595743</v>
       </c>
     </row>
   </sheetData>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>24.61678044904274</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>23.46456242451583</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>37.13925100285415</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>34.45295969778793</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8622,16 +8622,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.530227110285693</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>32.96672057477706</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
-        <v>33.44562680252832</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8859,10 +8859,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>124.8061771688017</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>271.1807172239994</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>161.2204455923627</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>460.2026481875401</v>
       </c>
       <c r="N16" t="n">
-        <v>183.7264897849188</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>220.1407582084795</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>460.20264818754</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>17.16407645485856</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>100.5143373812423</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>460.2026481875402</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9576,10 +9576,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>161.2204455923625</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>176.5927680752905</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>5.730076405534874</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9801,19 +9801,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>335.8453389430422</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>238.662231220695</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>5.730076405535328</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>445.381275852928</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>376.0621247563065</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0.09065431347744379</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>138.8980027333365</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>508.6249267236133</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>107.619040799068</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>477.3459647893462</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>252.6331865393661</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>99.22775274285846</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>430.8209235028737</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>185.4230440198085</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>5.730076405535328</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>238.6622312206954</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10521,10 +10521,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>311.5534991554835</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10746,16 +10746,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>269.7066086807467</v>
       </c>
       <c r="M37" t="n">
-        <v>460.20264818754</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>87.03775298930282</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10989,19 +10989,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>460.2026481875403</v>
       </c>
       <c r="N40" t="n">
-        <v>37.35194972972067</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>162.6945541356154</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11229,16 +11229,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>183.7264897849186</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>198.9888697718611</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>182.2523812416656</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>198.9888697718607</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>218.4725876326031</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,10 +23269,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>337.0070847304542</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H11" t="n">
         <v>266.9386168967821</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.28993835874888</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>109.5290982203763</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>316.7219469542321</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.49929442858</v>
       </c>
       <c r="H14" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>39.87097519686765</v>
       </c>
       <c r="T14" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>44.306104712322</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3063485156542924</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>103.5059916587722</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.35142611526319</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>394.817621174445</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>395.49929442858</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>209.616899433655</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -23797,10 +23797,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>275.6029517756035</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>104.6351904299729</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.35142611526319</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T19" t="n">
-        <v>79.02497276508359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>61.9084610098713</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.49929442858</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.87097519686766</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>222.4285381953566</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24135,10 +24135,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.3514261152632</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>96.76109248885612</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.32412053495111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>414.3307998701517</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.87097519686766</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T23" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>278.8921943128801</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0602121166985</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>312.9149274113432</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.49929442858</v>
+        <v>311.0088903720264</v>
       </c>
       <c r="H29" t="n">
         <v>266.9386168967821</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>46.04256204092241</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>35.53451004246318</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>222.6978539764597</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>189.7090507828887</v>
+        <v>170.6575229139332</v>
       </c>
       <c r="H35" t="n">
         <v>266.9386168967821</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>76.05028244003043</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>38.51355546984735</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>428.6819018678963</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.49929442858</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T38" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>217.9831158783605</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>176.9779168320049</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>129.9134320692163</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>89.65430525431708</v>
       </c>
       <c r="C41" t="n">
-        <v>270.3562904063965</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.49929442858</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.87097519686766</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.3514261152632</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>153.4381682294282</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6025608416909</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>96.88911012765777</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>17.0383774928564</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>103.8390941751485</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>256.4793149654022</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>72.6120496208141</v>
       </c>
       <c r="F46" t="n">
-        <v>140.176198112731</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H46" t="n">
         <v>130.9872392357504</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>316014.8864591123</v>
+        <v>316014.8864591122</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>316014.8864591121</v>
+        <v>316014.8864591122</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>316014.8864591122</v>
+        <v>316014.8864591123</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>404187.9619560588</v>
+        <v>404187.9619560586</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>404187.9619560588</v>
+        <v>404187.9619560587</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>404187.9619560589</v>
+        <v>404187.9619560587</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>404187.9619560588</v>
+        <v>404187.9619560587</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>316014.8864591122</v>
+        <v>316014.8864591123</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>418707.7063118332</v>
+        <v>418707.7063118333</v>
       </c>
       <c r="C2" t="n">
-        <v>418707.7063118332</v>
+        <v>418707.7063118333</v>
       </c>
       <c r="D2" t="n">
-        <v>428917.8559123265</v>
+        <v>428917.8559123264</v>
       </c>
       <c r="E2" t="n">
+        <v>252547.9288974678</v>
+      </c>
+      <c r="F2" t="n">
         <v>252547.9288974677</v>
       </c>
-      <c r="F2" t="n">
-        <v>252547.9288974676</v>
-      </c>
       <c r="G2" t="n">
-        <v>252547.9288974676</v>
+        <v>252547.9288974677</v>
       </c>
       <c r="H2" t="n">
         <v>252547.9288974677</v>
       </c>
       <c r="I2" t="n">
-        <v>302605.8503551846</v>
+        <v>302605.8503551848</v>
       </c>
       <c r="J2" t="n">
         <v>302605.8503551848</v>
@@ -26352,10 +26352,10 @@
         <v>252547.9288974677</v>
       </c>
       <c r="O2" t="n">
-        <v>252547.9288974676</v>
+        <v>252547.9288974677</v>
       </c>
       <c r="P2" t="n">
-        <v>252547.9288974676</v>
+        <v>252547.9288974677</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>40883.89454475579</v>
       </c>
       <c r="E3" t="n">
-        <v>514944.3509551202</v>
+        <v>514944.3509551201</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41386.09437926612</v>
+        <v>41386.09437926606</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10456.45543630175</v>
+        <v>10456.45543630177</v>
       </c>
       <c r="M3" t="n">
         <v>98626.66051350009</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>294349.6920770006</v>
@@ -26432,22 +26432,22 @@
         <v>16583.60067171038</v>
       </c>
       <c r="G4" t="n">
+        <v>16583.60067171038</v>
+      </c>
+      <c r="H4" t="n">
         <v>16583.60067171037</v>
       </c>
-      <c r="H4" t="n">
-        <v>16583.60067171038</v>
-      </c>
       <c r="I4" t="n">
-        <v>45408.65875017084</v>
+        <v>45408.65875017081</v>
       </c>
       <c r="J4" t="n">
-        <v>45408.65875017085</v>
+        <v>45408.65875017082</v>
       </c>
       <c r="K4" t="n">
-        <v>45408.65875017087</v>
+        <v>45408.65875017081</v>
       </c>
       <c r="L4" t="n">
-        <v>45408.65875017086</v>
+        <v>45408.65875017082</v>
       </c>
       <c r="M4" t="n">
         <v>16583.60067171038</v>
@@ -26459,7 +26459,7 @@
         <v>16583.60067171038</v>
       </c>
       <c r="P4" t="n">
-        <v>16583.60067171038</v>
+        <v>16583.60067171037</v>
       </c>
     </row>
     <row r="5">
@@ -26484,31 +26484,31 @@
         <v>46256.55073973801</v>
       </c>
       <c r="G5" t="n">
-        <v>46256.550739738</v>
+        <v>46256.55073973801</v>
       </c>
       <c r="H5" t="n">
-        <v>46256.550739738</v>
+        <v>46256.55073973801</v>
       </c>
       <c r="I5" t="n">
-        <v>55719.03974308629</v>
+        <v>55719.03974308628</v>
       </c>
       <c r="J5" t="n">
         <v>55719.03974308629</v>
       </c>
       <c r="K5" t="n">
-        <v>55719.03974308629</v>
+        <v>55719.03974308628</v>
       </c>
       <c r="L5" t="n">
         <v>55719.03974308629</v>
       </c>
       <c r="M5" t="n">
-        <v>46256.550739738</v>
+        <v>46256.55073973801</v>
       </c>
       <c r="N5" t="n">
-        <v>46256.550739738</v>
+        <v>46256.55073973801</v>
       </c>
       <c r="O5" t="n">
-        <v>46256.550739738</v>
+        <v>46256.55073973801</v>
       </c>
       <c r="P5" t="n">
         <v>46256.550739738</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86349.39000000042</v>
+        <v>86317.48328249886</v>
       </c>
       <c r="C6" t="n">
-        <v>86349.39000000042</v>
+        <v>86317.48328249891</v>
       </c>
       <c r="D6" t="n">
-        <v>56830.69948036005</v>
+        <v>56830.69948035993</v>
       </c>
       <c r="E6" t="n">
-        <v>-325236.5734691008</v>
+        <v>-325787.7294910221</v>
       </c>
       <c r="F6" t="n">
-        <v>189707.7774860192</v>
+        <v>189156.6214640979</v>
       </c>
       <c r="G6" t="n">
-        <v>189707.7774860193</v>
+        <v>189156.6214640979</v>
       </c>
       <c r="H6" t="n">
-        <v>189707.7774860194</v>
+        <v>189156.6214640979</v>
       </c>
       <c r="I6" t="n">
-        <v>160092.0574826614</v>
+        <v>159697.3324652956</v>
       </c>
       <c r="J6" t="n">
-        <v>201478.1518619276</v>
+        <v>201083.4268445616</v>
       </c>
       <c r="K6" t="n">
-        <v>201478.1518619276</v>
+        <v>201083.4268445616</v>
       </c>
       <c r="L6" t="n">
-        <v>191021.6964256259</v>
+        <v>190626.9714082598</v>
       </c>
       <c r="M6" t="n">
-        <v>91081.11697251926</v>
+        <v>90529.9609505978</v>
       </c>
       <c r="N6" t="n">
-        <v>189707.7774860194</v>
+        <v>189156.6214640978</v>
       </c>
       <c r="O6" t="n">
-        <v>189707.7774860192</v>
+        <v>189156.6214640979</v>
       </c>
       <c r="P6" t="n">
-        <v>189707.7774860193</v>
+        <v>189156.6214640979</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042022</v>
       </c>
       <c r="F3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042022</v>
       </c>
       <c r="G3" t="n">
-        <v>468.7839603042021</v>
+        <v>468.7839603042022</v>
       </c>
       <c r="H3" t="n">
         <v>468.7839603042021</v>
@@ -26798,37 +26798,37 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>592.7148092945133</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="F4" t="n">
         <v>592.7148092945132</v>
       </c>
       <c r="G4" t="n">
-        <v>592.7148092945131</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="H4" t="n">
-        <v>592.7148092945131</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="I4" t="n">
-        <v>748.3478521127415</v>
+        <v>748.3478521127414</v>
       </c>
       <c r="J4" t="n">
         <v>748.3478521127415</v>
       </c>
       <c r="K4" t="n">
-        <v>748.3478521127415</v>
+        <v>748.3478521127414</v>
       </c>
       <c r="L4" t="n">
         <v>748.3478521127415</v>
       </c>
       <c r="M4" t="n">
-        <v>592.7148092945131</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="N4" t="n">
-        <v>592.7148092945131</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="O4" t="n">
-        <v>592.7148092945131</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="P4" t="n">
         <v>592.7148092945131</v>
@@ -27020,7 +27020,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>551.3998062469859</v>
+        <v>551.3998062469858</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.6330428182284</v>
+        <v>155.6330428182282</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752746</v>
       </c>
       <c r="M4" t="n">
         <v>395.7667634287575</v>
@@ -27266,7 +27266,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>551.3998062469859</v>
+        <v>551.3998062469858</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27934,7 +27934,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>69.00164186746204</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -27985,19 +27985,19 @@
         <v>20.19730100379491</v>
       </c>
       <c r="T9" t="n">
-        <v>87.27789097014247</v>
+        <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>133.2535436095709</v>
+        <v>174.5685466570983</v>
       </c>
       <c r="V9" t="n">
-        <v>160.7360880743585</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>153.5101778475351</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5612962059744</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
         <v>137.9780290613614</v>
@@ -28064,10 +28064,10 @@
         <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>201.8532889431057</v>
+        <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>234.3304460753022</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>188.7552192947707</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31758,7 +31758,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I11" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J11" t="n">
         <v>159.9495583954524</v>
@@ -31773,10 +31773,10 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N11" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O11" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P11" t="n">
         <v>271.0018873233956</v>
@@ -31791,7 +31791,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T11" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U11" t="n">
         <v>0.1507646907511001</v>
@@ -31837,10 +31837,10 @@
         <v>9.738323401791071</v>
       </c>
       <c r="I12" t="n">
-        <v>34.71654800366026</v>
+        <v>27.22161917482968</v>
       </c>
       <c r="J12" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K12" t="n">
         <v>162.8228213822624</v>
@@ -31858,19 +31858,19 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P12" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q12" t="n">
-        <v>121.2172257060136</v>
+        <v>128.7121545348444</v>
       </c>
       <c r="R12" t="n">
-        <v>62.60477115156877</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S12" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T12" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U12" t="n">
         <v>0.06633735287323619</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H13" t="n">
         <v>7.515913330778853</v>
       </c>
       <c r="I13" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J13" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K13" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L13" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M13" t="n">
         <v>132.5121611069731</v>
@@ -31934,16 +31934,16 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O13" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P13" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R13" t="n">
-        <v>38.00992569941941</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S13" t="n">
         <v>14.73211232628123</v>
@@ -31952,7 +31952,7 @@
         <v>3.611941989229098</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I14" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J14" t="n">
         <v>159.9495583954524</v>
@@ -32010,10 +32010,10 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N14" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O14" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P14" t="n">
         <v>271.0018873233956</v>
@@ -32028,7 +32028,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T14" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U14" t="n">
         <v>0.1507646907511001</v>
@@ -32074,13 +32074,13 @@
         <v>9.738323401791071</v>
       </c>
       <c r="I15" t="n">
-        <v>27.22161917482946</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J15" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K15" t="n">
-        <v>162.8228213822624</v>
+        <v>155.3278925534318</v>
       </c>
       <c r="L15" t="n">
         <v>218.9353769326371</v>
@@ -32095,19 +32095,19 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P15" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q15" t="n">
         <v>128.7121545348444</v>
       </c>
       <c r="R15" t="n">
-        <v>62.60477115156877</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S15" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T15" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U15" t="n">
         <v>0.06633735287323619</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H16" t="n">
         <v>7.515913330778853</v>
       </c>
       <c r="I16" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J16" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K16" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L16" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M16" t="n">
         <v>132.5121611069731</v>
@@ -32171,16 +32171,16 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O16" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P16" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R16" t="n">
-        <v>38.00992569941941</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S16" t="n">
         <v>14.73211232628123</v>
@@ -32189,7 +32189,7 @@
         <v>3.611941989229098</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,43 +32232,43 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I17" t="n">
-        <v>72.65444675227238</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J17" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K17" t="n">
-        <v>239.7229253891282</v>
+        <v>239.7229253891283</v>
       </c>
       <c r="L17" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M17" t="n">
-        <v>330.9120063106139</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N17" t="n">
-        <v>336.266508530571</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O17" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P17" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233956</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.5111312293483</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R17" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S17" t="n">
-        <v>42.9443798811337</v>
+        <v>42.94437988113371</v>
       </c>
       <c r="T17" t="n">
-        <v>8.24965542203676</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1507646907511</v>
+        <v>0.1507646907511001</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.008327763673189</v>
+        <v>1.00832776367319</v>
       </c>
       <c r="H18" t="n">
-        <v>9.738323401791067</v>
+        <v>9.738323401791071</v>
       </c>
       <c r="I18" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J18" t="n">
-        <v>87.76993238732832</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K18" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L18" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M18" t="n">
-        <v>255.4872583657901</v>
+        <v>255.4872583657902</v>
       </c>
       <c r="N18" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686688</v>
       </c>
       <c r="O18" t="n">
-        <v>239.9068254209627</v>
+        <v>232.4118965921323</v>
       </c>
       <c r="P18" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.7121545348443</v>
+        <v>128.7121545348444</v>
       </c>
       <c r="R18" t="n">
-        <v>62.60477115156875</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S18" t="n">
-        <v>18.72924596121032</v>
+        <v>18.72924596121033</v>
       </c>
       <c r="T18" t="n">
-        <v>4.064268486033599</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06633735287323617</v>
+        <v>0.06633735287323619</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8453481251387249</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H19" t="n">
-        <v>7.515913330778851</v>
+        <v>7.515913330778853</v>
       </c>
       <c r="I19" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J19" t="n">
-        <v>59.76611244730785</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K19" t="n">
-        <v>98.2140821752082</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L19" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M19" t="n">
-        <v>132.512161106973</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N19" t="n">
-        <v>129.3613180950924</v>
+        <v>129.3613180950925</v>
       </c>
       <c r="O19" t="n">
         <v>119.4861149968809</v>
       </c>
       <c r="P19" t="n">
-        <v>102.2410132440508</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.78637800593451</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R19" t="n">
-        <v>38.00992569941939</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S19" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T19" t="n">
-        <v>3.611941989229097</v>
+        <v>3.611941989229098</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0461098977348396</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I20" t="n">
-        <v>72.65444675227238</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J20" t="n">
         <v>159.9495583954524</v>
@@ -32478,34 +32478,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L20" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M20" t="n">
-        <v>330.9120063106139</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N20" t="n">
-        <v>336.266508530571</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O20" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P20" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233956</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.5111312293483</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R20" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S20" t="n">
-        <v>42.9443798811337</v>
+        <v>42.94437988113371</v>
       </c>
       <c r="T20" t="n">
-        <v>8.24965542203676</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1507646907511</v>
+        <v>0.1507646907511001</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.008327763673189</v>
+        <v>1.00832776367319</v>
       </c>
       <c r="H21" t="n">
-        <v>9.738323401791067</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I21" t="n">
-        <v>27.22161917482992</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J21" t="n">
-        <v>95.26486121615866</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K21" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L21" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M21" t="n">
         <v>255.4872583657901</v>
@@ -32566,25 +32566,25 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O21" t="n">
-        <v>239.9068254209627</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P21" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.7121545348443</v>
+        <v>121.2172257060138</v>
       </c>
       <c r="R21" t="n">
-        <v>62.60477115156875</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S21" t="n">
-        <v>18.72924596121032</v>
+        <v>18.72924596121033</v>
       </c>
       <c r="T21" t="n">
-        <v>4.064268486033599</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06633735287323617</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,28 +32621,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8453481251387249</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H22" t="n">
-        <v>7.515913330778851</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I22" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J22" t="n">
-        <v>59.76611244730785</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K22" t="n">
-        <v>98.2140821752082</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L22" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M22" t="n">
-        <v>132.512161106973</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N22" t="n">
-        <v>129.3613180950924</v>
+        <v>129.3613180950925</v>
       </c>
       <c r="O22" t="n">
         <v>119.4861149968809</v>
@@ -32651,7 +32651,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.78637800593451</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R22" t="n">
         <v>38.00992569941939</v>
@@ -32706,7 +32706,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I23" t="n">
-        <v>72.65444675227238</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J23" t="n">
         <v>159.9495583954524</v>
@@ -32715,34 +32715,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L23" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M23" t="n">
-        <v>330.9120063106139</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N23" t="n">
-        <v>336.266508530571</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O23" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P23" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233956</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.5111312293483</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R23" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S23" t="n">
-        <v>42.9443798811337</v>
+        <v>42.94437988113371</v>
       </c>
       <c r="T23" t="n">
-        <v>8.24965542203676</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1507646907511</v>
+        <v>0.1507646907511001</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.008327763673189</v>
+        <v>1.00832776367319</v>
       </c>
       <c r="H24" t="n">
-        <v>9.738323401791067</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I24" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J24" t="n">
-        <v>95.26486121615866</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K24" t="n">
-        <v>155.327892553432</v>
+        <v>162.8228213822624</v>
       </c>
       <c r="L24" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M24" t="n">
         <v>255.4872583657901</v>
@@ -32803,25 +32803,25 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O24" t="n">
-        <v>239.9068254209627</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P24" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.7121545348443</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R24" t="n">
-        <v>62.60477115156875</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S24" t="n">
-        <v>18.72924596121032</v>
+        <v>18.72924596121033</v>
       </c>
       <c r="T24" t="n">
-        <v>4.064268486033599</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06633735287323617</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,28 +32858,28 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8453481251387249</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H25" t="n">
-        <v>7.515913330778851</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I25" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J25" t="n">
-        <v>59.76611244730785</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K25" t="n">
-        <v>98.2140821752082</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L25" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M25" t="n">
-        <v>132.512161106973</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N25" t="n">
-        <v>129.3613180950924</v>
+        <v>129.3613180950925</v>
       </c>
       <c r="O25" t="n">
         <v>119.4861149968809</v>
@@ -32888,7 +32888,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.78637800593451</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R25" t="n">
         <v>38.00992569941939</v>
@@ -32943,7 +32943,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I26" t="n">
-        <v>72.65444675227238</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J26" t="n">
         <v>159.9495583954524</v>
@@ -32952,34 +32952,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L26" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M26" t="n">
-        <v>330.9120063106139</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N26" t="n">
-        <v>336.266508530571</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O26" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P26" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233956</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.5111312293483</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R26" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S26" t="n">
-        <v>42.9443798811337</v>
+        <v>42.94437988113371</v>
       </c>
       <c r="T26" t="n">
-        <v>8.24965542203676</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1507646907511</v>
+        <v>0.1507646907511001</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.008327763673189</v>
+        <v>1.00832776367319</v>
       </c>
       <c r="H27" t="n">
-        <v>9.738323401791067</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I27" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J27" t="n">
-        <v>95.26486121615866</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K27" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L27" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M27" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N27" t="n">
-        <v>254.7543170398384</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O27" t="n">
-        <v>239.9068254209627</v>
+        <v>232.4118965921325</v>
       </c>
       <c r="P27" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.7121545348443</v>
+        <v>128.7121545348444</v>
       </c>
       <c r="R27" t="n">
-        <v>62.60477115156875</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S27" t="n">
-        <v>18.72924596121032</v>
+        <v>18.72924596121033</v>
       </c>
       <c r="T27" t="n">
-        <v>4.064268486033599</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06633735287323617</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,28 +33095,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8453481251387249</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H28" t="n">
-        <v>7.515913330778851</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I28" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J28" t="n">
-        <v>59.76611244730785</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K28" t="n">
-        <v>98.2140821752082</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L28" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M28" t="n">
-        <v>132.512161106973</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N28" t="n">
-        <v>129.3613180950924</v>
+        <v>129.3613180950925</v>
       </c>
       <c r="O28" t="n">
         <v>119.4861149968809</v>
@@ -33125,7 +33125,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.78637800593451</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R28" t="n">
         <v>38.00992569941939</v>
@@ -33180,7 +33180,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I29" t="n">
-        <v>72.65444675227238</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J29" t="n">
         <v>159.9495583954524</v>
@@ -33189,34 +33189,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L29" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M29" t="n">
-        <v>330.9120063106139</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N29" t="n">
-        <v>336.266508530571</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O29" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P29" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233956</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.5111312293483</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R29" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S29" t="n">
-        <v>42.9443798811337</v>
+        <v>42.94437988113371</v>
       </c>
       <c r="T29" t="n">
-        <v>8.24965542203676</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1507646907511</v>
+        <v>0.1507646907511001</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.008327763673189</v>
+        <v>1.00832776367319</v>
       </c>
       <c r="H30" t="n">
-        <v>9.738323401791067</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I30" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J30" t="n">
-        <v>95.26486121615866</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K30" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L30" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M30" t="n">
         <v>255.4872583657901</v>
@@ -33277,25 +33277,25 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O30" t="n">
-        <v>239.9068254209627</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P30" t="n">
-        <v>185.0514491308334</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.7121545348443</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R30" t="n">
-        <v>62.60477115156875</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S30" t="n">
-        <v>18.72924596121032</v>
+        <v>18.72924596121033</v>
       </c>
       <c r="T30" t="n">
-        <v>4.064268486033599</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06633735287323617</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,28 +33332,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8453481251387249</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H31" t="n">
-        <v>7.515913330778851</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I31" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J31" t="n">
-        <v>59.76611244730785</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K31" t="n">
-        <v>98.2140821752082</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L31" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M31" t="n">
-        <v>132.512161106973</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N31" t="n">
-        <v>129.3613180950924</v>
+        <v>129.3613180950925</v>
       </c>
       <c r="O31" t="n">
         <v>119.4861149968809</v>
@@ -33362,7 +33362,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.78637800593451</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R31" t="n">
         <v>38.00992569941939</v>
@@ -33417,7 +33417,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I32" t="n">
-        <v>72.65444675227238</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J32" t="n">
         <v>159.9495583954524</v>
@@ -33426,34 +33426,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L32" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M32" t="n">
-        <v>330.9120063106139</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N32" t="n">
-        <v>336.266508530571</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O32" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P32" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233956</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.5111312293483</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R32" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S32" t="n">
-        <v>42.9443798811337</v>
+        <v>42.94437988113371</v>
       </c>
       <c r="T32" t="n">
-        <v>8.24965542203676</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1507646907511</v>
+        <v>0.1507646907511001</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.008327763673189</v>
+        <v>1.00832776367319</v>
       </c>
       <c r="H33" t="n">
-        <v>9.738323401791067</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I33" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J33" t="n">
-        <v>95.26486121615866</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K33" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L33" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M33" t="n">
         <v>255.4872583657901</v>
@@ -33514,25 +33514,25 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O33" t="n">
-        <v>232.4118965921321</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P33" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.7121545348443</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R33" t="n">
-        <v>62.60477115156875</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S33" t="n">
-        <v>18.72924596121032</v>
+        <v>18.72924596121033</v>
       </c>
       <c r="T33" t="n">
-        <v>4.064268486033599</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06633735287323617</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,28 +33569,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8453481251387249</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H34" t="n">
-        <v>7.515913330778851</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I34" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J34" t="n">
-        <v>59.76611244730785</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K34" t="n">
-        <v>98.2140821752082</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L34" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M34" t="n">
-        <v>132.512161106973</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N34" t="n">
-        <v>129.3613180950924</v>
+        <v>129.3613180950925</v>
       </c>
       <c r="O34" t="n">
         <v>119.4861149968809</v>
@@ -33599,7 +33599,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.78637800593451</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R34" t="n">
         <v>38.00992569941939</v>
@@ -33654,7 +33654,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I35" t="n">
-        <v>72.65444675227238</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J35" t="n">
         <v>159.9495583954524</v>
@@ -33663,34 +33663,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L35" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M35" t="n">
-        <v>330.9120063106139</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N35" t="n">
-        <v>336.266508530571</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O35" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P35" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233956</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.5111312293483</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R35" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S35" t="n">
-        <v>42.9443798811337</v>
+        <v>42.94437988113371</v>
       </c>
       <c r="T35" t="n">
-        <v>8.24965542203676</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1507646907511</v>
+        <v>0.1507646907511001</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.008327763673189</v>
+        <v>1.00832776367319</v>
       </c>
       <c r="H36" t="n">
-        <v>9.738323401791067</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I36" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J36" t="n">
-        <v>95.26486121615866</v>
+        <v>87.76993238732831</v>
       </c>
       <c r="K36" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L36" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M36" t="n">
-        <v>247.9923295369598</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N36" t="n">
         <v>262.2492458686687</v>
       </c>
       <c r="O36" t="n">
-        <v>239.9068254209627</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P36" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.7121545348443</v>
+        <v>128.7121545348444</v>
       </c>
       <c r="R36" t="n">
-        <v>62.60477115156875</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S36" t="n">
-        <v>18.72924596121032</v>
+        <v>18.72924596121033</v>
       </c>
       <c r="T36" t="n">
-        <v>4.064268486033599</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06633735287323617</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,28 +33806,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8453481251387249</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H37" t="n">
-        <v>7.515913330778851</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I37" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J37" t="n">
-        <v>59.76611244730785</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K37" t="n">
-        <v>98.2140821752082</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L37" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M37" t="n">
-        <v>132.512161106973</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N37" t="n">
-        <v>129.3613180950924</v>
+        <v>129.3613180950925</v>
       </c>
       <c r="O37" t="n">
         <v>119.4861149968809</v>
@@ -33836,7 +33836,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.78637800593451</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R37" t="n">
         <v>38.00992569941939</v>
@@ -33891,7 +33891,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I38" t="n">
-        <v>72.65444675227238</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J38" t="n">
         <v>159.9495583954524</v>
@@ -33900,34 +33900,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L38" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M38" t="n">
-        <v>330.9120063106139</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N38" t="n">
-        <v>336.266508530571</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O38" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P38" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233956</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.5111312293483</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R38" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S38" t="n">
-        <v>42.9443798811337</v>
+        <v>42.94437988113371</v>
       </c>
       <c r="T38" t="n">
-        <v>8.24965542203676</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1507646907511</v>
+        <v>0.1507646907511001</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.008327763673189</v>
+        <v>1.00832776367319</v>
       </c>
       <c r="H39" t="n">
-        <v>9.738323401791067</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I39" t="n">
-        <v>27.22161917482992</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J39" t="n">
-        <v>95.26486121615866</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K39" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L39" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M39" t="n">
         <v>255.4872583657901</v>
@@ -33988,25 +33988,25 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O39" t="n">
-        <v>239.9068254209627</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P39" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308331</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.7121545348443</v>
+        <v>128.7121545348444</v>
       </c>
       <c r="R39" t="n">
-        <v>62.60477115156875</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S39" t="n">
-        <v>18.72924596121032</v>
+        <v>18.72924596121033</v>
       </c>
       <c r="T39" t="n">
-        <v>4.064268486033599</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06633735287323617</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,28 +34043,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8453481251387249</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H40" t="n">
-        <v>7.515913330778851</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I40" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J40" t="n">
-        <v>59.76611244730785</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K40" t="n">
-        <v>98.2140821752082</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L40" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M40" t="n">
-        <v>132.512161106973</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N40" t="n">
-        <v>129.3613180950924</v>
+        <v>129.3613180950925</v>
       </c>
       <c r="O40" t="n">
         <v>119.4861149968809</v>
@@ -34073,7 +34073,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.78637800593451</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R40" t="n">
         <v>38.00992569941939</v>
@@ -34128,7 +34128,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I41" t="n">
-        <v>72.65444675227238</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J41" t="n">
         <v>159.9495583954524</v>
@@ -34137,34 +34137,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L41" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M41" t="n">
-        <v>330.9120063106139</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N41" t="n">
-        <v>336.266508530571</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O41" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P41" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233956</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.5111312293483</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R41" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S41" t="n">
-        <v>42.9443798811337</v>
+        <v>42.94437988113371</v>
       </c>
       <c r="T41" t="n">
-        <v>8.24965542203676</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1507646907511</v>
+        <v>0.1507646907511001</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.008327763673189</v>
+        <v>1.00832776367319</v>
       </c>
       <c r="H42" t="n">
-        <v>9.738323401791067</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I42" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J42" t="n">
-        <v>95.26486121615866</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K42" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L42" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M42" t="n">
         <v>255.4872583657901</v>
@@ -34225,25 +34225,25 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O42" t="n">
-        <v>239.9068254209627</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P42" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308331</v>
       </c>
       <c r="Q42" t="n">
-        <v>121.217225706014</v>
+        <v>128.7121545348444</v>
       </c>
       <c r="R42" t="n">
-        <v>62.60477115156875</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S42" t="n">
-        <v>18.72924596121032</v>
+        <v>18.72924596121033</v>
       </c>
       <c r="T42" t="n">
-        <v>4.064268486033599</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06633735287323617</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,28 +34280,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8453481251387249</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H43" t="n">
-        <v>7.515913330778851</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I43" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J43" t="n">
-        <v>59.76611244730785</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K43" t="n">
-        <v>98.2140821752082</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L43" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M43" t="n">
-        <v>132.512161106973</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N43" t="n">
-        <v>129.3613180950924</v>
+        <v>129.3613180950925</v>
       </c>
       <c r="O43" t="n">
         <v>119.4861149968809</v>
@@ -34310,7 +34310,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.78637800593451</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R43" t="n">
         <v>38.00992569941939</v>
@@ -34365,7 +34365,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I44" t="n">
-        <v>72.65444675227238</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J44" t="n">
         <v>159.9495583954524</v>
@@ -34374,34 +34374,34 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L44" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M44" t="n">
-        <v>330.9120063106139</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N44" t="n">
-        <v>336.266508530571</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O44" t="n">
         <v>317.5269286098679</v>
       </c>
       <c r="P44" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233956</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.5111312293483</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R44" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S44" t="n">
-        <v>42.9443798811337</v>
+        <v>42.94437988113371</v>
       </c>
       <c r="T44" t="n">
-        <v>8.24965542203676</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1507646907511</v>
+        <v>0.1507646907511001</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.008327763673189</v>
+        <v>1.00832776367319</v>
       </c>
       <c r="H45" t="n">
-        <v>9.738323401791067</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I45" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J45" t="n">
-        <v>95.26486121615866</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K45" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L45" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M45" t="n">
         <v>255.4872583657901</v>
@@ -34462,25 +34462,25 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O45" t="n">
-        <v>239.9068254209627</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P45" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q45" t="n">
-        <v>121.217225706014</v>
+        <v>128.7121545348444</v>
       </c>
       <c r="R45" t="n">
-        <v>62.60477115156875</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S45" t="n">
-        <v>18.72924596121032</v>
+        <v>18.72924596121033</v>
       </c>
       <c r="T45" t="n">
-        <v>4.064268486033599</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06633735287323617</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,28 +34517,28 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8453481251387249</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H46" t="n">
-        <v>7.515913330778851</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I46" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J46" t="n">
-        <v>59.76611244730785</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K46" t="n">
-        <v>98.2140821752082</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L46" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M46" t="n">
-        <v>132.512161106973</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N46" t="n">
-        <v>129.3613180950924</v>
+        <v>129.3613180950925</v>
       </c>
       <c r="O46" t="n">
         <v>119.4861149968809</v>
@@ -34547,7 +34547,7 @@
         <v>102.2410132440508</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.78637800593451</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R46" t="n">
         <v>38.00992569941939</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>27.04236395069828</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
         <v>6.655986523460122</v>
@@ -35260,7 +35260,7 @@
         <v>15.29662563687356</v>
       </c>
       <c r="M9" t="n">
-        <v>41.31500304752735</v>
+        <v>17.85044062301152</v>
       </c>
       <c r="N9" t="n">
         <v>18.32288867065883</v>
@@ -35275,7 +35275,7 @@
         <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
-        <v>4.37408408273069</v>
+        <v>26.12848436996845</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>4.175752044673201</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.862043349739427</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.781052968829309</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.258389161154689</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.5684724707054</v>
+      </c>
+      <c r="O10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L10" t="n">
-        <v>8.781052968829314</v>
-      </c>
-      <c r="M10" t="n">
-        <v>9.258389161154682</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.038245360419708</v>
-      </c>
-      <c r="O10" t="n">
-        <v>8.348282472750284</v>
-      </c>
       <c r="P10" t="n">
-        <v>7.143397865800722</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.39134521367464</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J11" t="n">
-        <v>159.9495583954524</v>
+        <v>159.9495583954526</v>
       </c>
       <c r="K11" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L11" t="n">
-        <v>297.3974866963032</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M11" t="n">
-        <v>330.9120063106139</v>
+        <v>330.9120063106138</v>
       </c>
       <c r="N11" t="n">
-        <v>336.2665085305714</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O11" t="n">
-        <v>317.5269286098678</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P11" t="n">
         <v>271.0018873233955</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.71654800366026</v>
+        <v>27.22161917482968</v>
       </c>
       <c r="J12" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K12" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L12" t="n">
-        <v>218.9353769326372</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M12" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N12" t="n">
         <v>262.2492458686688</v>
@@ -35509,7 +35509,7 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q12" t="n">
-        <v>121.2172257060136</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R12" t="n">
         <v>62.60477115156868</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K13" t="n">
-        <v>98.21408217520826</v>
+        <v>375.7478746713048</v>
       </c>
       <c r="L13" t="n">
         <v>548.1144352673025</v>
@@ -35579,19 +35579,19 @@
         <v>132.5121611069731</v>
       </c>
       <c r="N13" t="n">
-        <v>254.1674952638941</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O13" t="n">
-        <v>543.3944475481753</v>
+        <v>390.6668322208805</v>
       </c>
       <c r="P13" t="n">
         <v>453.2580778605577</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.6780697880886</v>
+        <v>240.6780697880881</v>
       </c>
       <c r="R13" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J14" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K14" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891283</v>
       </c>
       <c r="L14" t="n">
-        <v>297.3974866963032</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M14" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106138</v>
       </c>
       <c r="N14" t="n">
         <v>336.2665085305712</v>
       </c>
       <c r="O14" t="n">
-        <v>317.5269286098678</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P14" t="n">
         <v>271.0018873233955</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>27.22161917482946</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J15" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K15" t="n">
-        <v>162.8228213822624</v>
+        <v>155.3278925534318</v>
       </c>
       <c r="L15" t="n">
-        <v>218.9353769326372</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M15" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N15" t="n">
         <v>262.2492458686688</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>147.2203398863885</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K16" t="n">
-        <v>375.7478746713049</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L16" t="n">
-        <v>548.1144352673024</v>
+        <v>286.9006568516238</v>
       </c>
       <c r="M16" t="n">
-        <v>132.5121611069731</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="N16" t="n">
-        <v>313.0878078800113</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O16" t="n">
-        <v>119.486114996881</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P16" t="n">
-        <v>453.2580778605577</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R16" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>72.24182527314098</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J17" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K17" t="n">
-        <v>239.7229253891282</v>
+        <v>239.7229253891283</v>
       </c>
       <c r="L17" t="n">
         <v>297.3974866963031</v>
@@ -35895,19 +35895,19 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N17" t="n">
-        <v>336.2665085305709</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O17" t="n">
-        <v>317.5269286098678</v>
+        <v>317.5269286098683</v>
       </c>
       <c r="P17" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q17" t="n">
         <v>203.5111312293484</v>
       </c>
       <c r="R17" t="n">
-        <v>118.3809063174226</v>
+        <v>118.3809063174222</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J18" t="n">
-        <v>87.76993238732832</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K18" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L18" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326372</v>
       </c>
       <c r="M18" t="n">
         <v>255.4872583657901</v>
@@ -35977,7 +35977,7 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O18" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921323</v>
       </c>
       <c r="P18" t="n">
         <v>192.5463779596637</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>147.2203398863885</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K19" t="n">
         <v>375.7478746713048</v>
       </c>
       <c r="L19" t="n">
-        <v>345.8209694677405</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M19" t="n">
-        <v>592.7148092945131</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N19" t="n">
-        <v>576.087381890693</v>
+        <v>146.525394549951</v>
       </c>
       <c r="O19" t="n">
-        <v>119.486114996881</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P19" t="n">
-        <v>102.2410132440509</v>
+        <v>453.2580778605577</v>
       </c>
       <c r="Q19" t="n">
         <v>70.78637800593469</v>
       </c>
       <c r="R19" t="n">
-        <v>16.80628261773755</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>72.24182527314098</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J20" t="n">
-        <v>159.9495583954524</v>
+        <v>159.9495583954522</v>
       </c>
       <c r="K20" t="n">
         <v>239.7229253891282</v>
       </c>
       <c r="L20" t="n">
-        <v>297.3974866963031</v>
+        <v>297.3974866963033</v>
       </c>
       <c r="M20" t="n">
-        <v>330.9120063106138</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N20" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305714</v>
       </c>
       <c r="O20" t="n">
-        <v>317.5269286098678</v>
+        <v>317.5269286098676</v>
       </c>
       <c r="P20" t="n">
         <v>271.0018873233957</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>27.22161917482992</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J21" t="n">
-        <v>95.26486121615866</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K21" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L21" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M21" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N21" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686688</v>
       </c>
       <c r="O21" t="n">
         <v>239.9068254209628</v>
@@ -36220,7 +36220,7 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.7121545348443</v>
+        <v>121.2172257060138</v>
       </c>
       <c r="R21" t="n">
         <v>62.60477115156868</v>
@@ -36281,25 +36281,25 @@
         <v>59.76611244730785</v>
       </c>
       <c r="K22" t="n">
-        <v>98.21408217520819</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L22" t="n">
-        <v>226.1945486405033</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M22" t="n">
-        <v>132.5121611069731</v>
+        <v>592.7148092945133</v>
       </c>
       <c r="N22" t="n">
-        <v>576.087381890693</v>
+        <v>576.0873818906932</v>
       </c>
       <c r="O22" t="n">
         <v>543.3944475481753</v>
       </c>
       <c r="P22" t="n">
-        <v>453.2580778605577</v>
+        <v>263.4614588364134</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R22" t="n">
         <v>16.80628261773755</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>72.24182527314098</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J23" t="n">
         <v>599.6007578428442</v>
       </c>
       <c r="K23" t="n">
-        <v>416.3156934644187</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L23" t="n">
         <v>297.3974866963031</v>
@@ -36369,19 +36369,19 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N23" t="n">
-        <v>336.2665085305709</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O23" t="n">
         <v>317.5269286098678</v>
       </c>
       <c r="P23" t="n">
-        <v>271.0018873233953</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.5111312293484</v>
+        <v>209.2412076348833</v>
       </c>
       <c r="R23" t="n">
-        <v>118.3809063174226</v>
+        <v>289.2435979871771</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.71654800366025</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J24" t="n">
-        <v>95.26486121615866</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K24" t="n">
-        <v>155.327892553432</v>
+        <v>162.8228213822624</v>
       </c>
       <c r="L24" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M24" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N24" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686686</v>
       </c>
       <c r="O24" t="n">
         <v>239.9068254209628</v>
@@ -36457,7 +36457,7 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.7121545348443</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R24" t="n">
         <v>62.60477115156868</v>
@@ -36521,19 +36521,19 @@
         <v>375.7478746713048</v>
       </c>
       <c r="L25" t="n">
-        <v>548.1144352673025</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M25" t="n">
-        <v>596.6372794715317</v>
+        <v>596.6372794715315</v>
       </c>
       <c r="N25" t="n">
-        <v>465.2066570381346</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O25" t="n">
-        <v>119.486114996881</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P25" t="n">
-        <v>453.2580778605575</v>
+        <v>340.903244464746</v>
       </c>
       <c r="Q25" t="n">
         <v>240.6780697880881</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>72.24182527314098</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J26" t="n">
-        <v>159.9495583954524</v>
+        <v>599.6007578428442</v>
       </c>
       <c r="K26" t="n">
-        <v>239.7229253891282</v>
+        <v>245.4530017946636</v>
       </c>
       <c r="L26" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M26" t="n">
-        <v>330.9120063106138</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N26" t="n">
-        <v>336.2665085305709</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O26" t="n">
         <v>317.5269286098678</v>
       </c>
       <c r="P26" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q26" t="n">
-        <v>648.8924070822763</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R26" t="n">
         <v>289.2435979871771</v>
@@ -36673,22 +36673,22 @@
         <v>34.71654800366025</v>
       </c>
       <c r="J27" t="n">
-        <v>95.26486121615866</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K27" t="n">
-        <v>162.8228213822623</v>
+        <v>162.8228213822624</v>
       </c>
       <c r="L27" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M27" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N27" t="n">
-        <v>254.7543170398384</v>
+        <v>262.2492458686686</v>
       </c>
       <c r="O27" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921325</v>
       </c>
       <c r="P27" t="n">
         <v>192.5463779596637</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>147.2203398863885</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K28" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L28" t="n">
         <v>548.1144352673025</v>
       </c>
       <c r="M28" t="n">
-        <v>508.5742858632796</v>
+        <v>596.6372794715317</v>
       </c>
       <c r="N28" t="n">
-        <v>129.3613180950924</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O28" t="n">
         <v>543.3944475481753</v>
       </c>
       <c r="P28" t="n">
-        <v>453.2580778605575</v>
+        <v>453.2580778605579</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.6780697880881</v>
+        <v>70.87703231941214</v>
       </c>
       <c r="R28" t="n">
         <v>16.80628261773755</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>72.24182527314098</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J29" t="n">
-        <v>298.8475611287888</v>
+        <v>159.9495583954524</v>
       </c>
       <c r="K29" t="n">
-        <v>239.7229253891282</v>
+        <v>748.3478521127415</v>
       </c>
       <c r="L29" t="n">
-        <v>297.3974866963028</v>
+        <v>405.0165274953711</v>
       </c>
       <c r="M29" t="n">
-        <v>330.9120063106139</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N29" t="n">
-        <v>336.2665085305709</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O29" t="n">
         <v>317.5269286098678</v>
       </c>
       <c r="P29" t="n">
-        <v>748.3478521127415</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q29" t="n">
         <v>203.5111312293484</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.71654800366025</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J30" t="n">
-        <v>95.26486121615866</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K30" t="n">
-        <v>162.8228213822623</v>
+        <v>162.8228213822624</v>
       </c>
       <c r="L30" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M30" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N30" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686686</v>
       </c>
       <c r="O30" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P30" t="n">
-        <v>185.0514491308334</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.7121545348443</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R30" t="n">
         <v>62.60477115156868</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.76611244730785</v>
+        <v>147.2203398863885</v>
       </c>
       <c r="K31" t="n">
-        <v>350.8472687145743</v>
+        <v>375.7478746713048</v>
       </c>
       <c r="L31" t="n">
-        <v>125.680211259261</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M31" t="n">
-        <v>596.6372794715317</v>
+        <v>231.7399138498315</v>
       </c>
       <c r="N31" t="n">
         <v>576.087381890693</v>
@@ -37007,10 +37007,10 @@
         <v>543.3944475481753</v>
       </c>
       <c r="P31" t="n">
-        <v>453.2580778605575</v>
+        <v>453.2580778605579</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R31" t="n">
         <v>16.80628261773755</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>72.24182527314098</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J32" t="n">
-        <v>159.9495583954524</v>
+        <v>599.6007578428442</v>
       </c>
       <c r="K32" t="n">
         <v>239.7229253891282</v>
@@ -37077,22 +37077,22 @@
         <v>297.3974866963031</v>
       </c>
       <c r="M32" t="n">
-        <v>330.9120063106138</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N32" t="n">
-        <v>336.2665085305709</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O32" t="n">
-        <v>748.3478521127415</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P32" t="n">
-        <v>456.4249313432042</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.5111312293484</v>
+        <v>209.2412076348837</v>
       </c>
       <c r="R32" t="n">
-        <v>118.3809063174226</v>
+        <v>289.2435979871771</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.71654800366036</v>
+        <v>34.71654800366025</v>
       </c>
       <c r="J33" t="n">
-        <v>95.26486121615858</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K33" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L33" t="n">
-        <v>218.9353769326369</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M33" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N33" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686686</v>
       </c>
       <c r="O33" t="n">
-        <v>232.4118965921321</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P33" t="n">
-        <v>192.5463779596639</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.7121545348441</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R33" t="n">
-        <v>62.60477115156891</v>
+        <v>62.60477115156868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2203398863885</v>
+        <v>147.2203398863886</v>
       </c>
       <c r="K34" t="n">
-        <v>375.7478746713048</v>
+        <v>375.7478746713047</v>
       </c>
       <c r="L34" t="n">
-        <v>125.680211259261</v>
+        <v>364.3424424799564</v>
       </c>
       <c r="M34" t="n">
-        <v>596.6372794715315</v>
+        <v>596.6372794715317</v>
       </c>
       <c r="N34" t="n">
         <v>576.087381890693</v>
       </c>
       <c r="O34" t="n">
-        <v>431.0396141523643</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P34" t="n">
-        <v>453.2580778605575</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q34" t="n">
         <v>240.6780697880881</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>72.24182527314098</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J35" t="n">
-        <v>159.9495583954524</v>
+        <v>159.9495583954523</v>
       </c>
       <c r="K35" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L35" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M35" t="n">
-        <v>330.9120063106139</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N35" t="n">
-        <v>336.2665085305709</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O35" t="n">
-        <v>317.5269286098678</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P35" t="n">
         <v>271.0018873233955</v>
@@ -37384,7 +37384,7 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J36" t="n">
-        <v>95.26486121615865</v>
+        <v>87.76993238732831</v>
       </c>
       <c r="K36" t="n">
         <v>162.8228213822624</v>
@@ -37393,7 +37393,7 @@
         <v>218.935376932637</v>
       </c>
       <c r="M36" t="n">
-        <v>247.9923295369598</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N36" t="n">
         <v>262.2492458686687</v>
@@ -37466,16 +37466,16 @@
         <v>59.76611244730785</v>
       </c>
       <c r="K37" t="n">
-        <v>98.21408217520819</v>
+        <v>375.7478746713048</v>
       </c>
       <c r="L37" t="n">
-        <v>125.680211259261</v>
+        <v>395.3868199400077</v>
       </c>
       <c r="M37" t="n">
-        <v>592.7148092945131</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N37" t="n">
-        <v>216.3990710843952</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O37" t="n">
         <v>543.3944475481753</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>72.24182527314098</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J38" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K38" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L38" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M38" t="n">
-        <v>330.9120063106139</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N38" t="n">
         <v>336.2665085305709</v>
       </c>
       <c r="O38" t="n">
-        <v>317.5269286098678</v>
+        <v>317.5269286098676</v>
       </c>
       <c r="P38" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q38" t="n">
         <v>203.5111312293484</v>
       </c>
       <c r="R38" t="n">
-        <v>118.3809063174226</v>
+        <v>118.3809063174222</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>27.22161917482992</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J39" t="n">
-        <v>95.26486121615866</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K39" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L39" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M39" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N39" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686688</v>
       </c>
       <c r="O39" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P39" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308331</v>
       </c>
       <c r="Q39" t="n">
         <v>128.7121545348443</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>147.2203398863885</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K40" t="n">
-        <v>98.2140821752082</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L40" t="n">
         <v>548.1144352673025</v>
       </c>
       <c r="M40" t="n">
-        <v>132.5121611069731</v>
+        <v>592.7148092945133</v>
       </c>
       <c r="N40" t="n">
-        <v>166.7132678248131</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O40" t="n">
-        <v>543.3944475481753</v>
+        <v>282.1806691324964</v>
       </c>
       <c r="P40" t="n">
-        <v>453.2580778605577</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R40" t="n">
         <v>16.80628261773755</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>72.24182527314098</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J41" t="n">
-        <v>159.9495583954524</v>
+        <v>159.9495583954522</v>
       </c>
       <c r="K41" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L41" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963033</v>
       </c>
       <c r="M41" t="n">
-        <v>330.9120063106139</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N41" t="n">
-        <v>336.2665085305709</v>
+        <v>336.2665085305714</v>
       </c>
       <c r="O41" t="n">
-        <v>317.5269286098678</v>
+        <v>317.5269286098676</v>
       </c>
       <c r="P41" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q41" t="n">
         <v>203.5111312293484</v>
       </c>
       <c r="R41" t="n">
-        <v>118.3809063174226</v>
+        <v>118.3809063174222</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J42" t="n">
-        <v>95.26486121615865</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K42" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L42" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M42" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N42" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686688</v>
       </c>
       <c r="O42" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P42" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308331</v>
       </c>
       <c r="Q42" t="n">
-        <v>121.217225706014</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R42" t="n">
         <v>62.60477115156868</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>147.2203398863885</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K43" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L43" t="n">
         <v>548.1144352673025</v>
@@ -37949,16 +37949,16 @@
         <v>132.5121611069731</v>
       </c>
       <c r="N43" t="n">
-        <v>313.087807880011</v>
+        <v>576.0873818906932</v>
       </c>
       <c r="O43" t="n">
-        <v>119.4861149968808</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P43" t="n">
-        <v>453.2580778605577</v>
+        <v>301.229883015912</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R43" t="n">
         <v>16.80628261773755</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>72.24182527314098</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J44" t="n">
-        <v>159.9495583954526</v>
+        <v>159.9495583954524</v>
       </c>
       <c r="K44" t="n">
         <v>239.7229253891282</v>
@@ -38028,10 +38028,10 @@
         <v>330.9120063106138</v>
       </c>
       <c r="N44" t="n">
-        <v>336.2665085305709</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O44" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P44" t="n">
         <v>271.0018873233957</v>
@@ -38095,10 +38095,10 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J45" t="n">
-        <v>95.26486121615865</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K45" t="n">
-        <v>162.8228213822624</v>
+        <v>162.8228213822623</v>
       </c>
       <c r="L45" t="n">
         <v>218.935376932637</v>
@@ -38113,10 +38113,10 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P45" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308334</v>
       </c>
       <c r="Q45" t="n">
-        <v>121.217225706014</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R45" t="n">
         <v>62.60477115156868</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>147.2203398863885</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K46" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L46" t="n">
-        <v>307.9325925009266</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M46" t="n">
         <v>132.5121611069731</v>
       </c>
       <c r="N46" t="n">
-        <v>129.3613180950924</v>
+        <v>576.0873818906932</v>
       </c>
       <c r="O46" t="n">
         <v>543.3944475481753</v>
       </c>
       <c r="P46" t="n">
-        <v>453.2580778605577</v>
+        <v>301.2298830159116</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R46" t="n">
         <v>16.80628261773755</v>
